--- a/Daily/Plan/Consolidated_Score_Latest.xlsx
+++ b/Daily/Plan/Consolidated_Score_Latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="103">
   <si>
     <t>Rank</t>
   </si>
@@ -52,328 +52,265 @@
     <t>Score_Bin</t>
   </si>
   <si>
+    <t>NYKAA</t>
+  </si>
+  <si>
+    <t>VIPIND</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>BALRAMCHIN</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
+  <si>
+    <t>MANKIND</t>
+  </si>
+  <si>
+    <t>SARDAEN</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>LEMONTREE</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>THOMASCOOK</t>
+  </si>
+  <si>
+    <t>PRESTIGE</t>
+  </si>
+  <si>
+    <t>CONCOR</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>TARC</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>SBFC</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>RADICO</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>JAGSNPHARM</t>
+  </si>
+  <si>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>SCHAEFFLER</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>EIHOTEL</t>
+  </si>
+  <si>
+    <t>ENGINERSIN</t>
+  </si>
+  <si>
+    <t>APTUS</t>
+  </si>
+  <si>
+    <t>COROMANDEL</t>
+  </si>
+  <si>
     <t>MEDANTA</t>
   </si>
   <si>
-    <t>CONCOR</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>THOMASCOOK</t>
-  </si>
-  <si>
-    <t>ENGINERSIN</t>
-  </si>
-  <si>
-    <t>VIPIND</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>LEMONTREE</t>
-  </si>
-  <si>
-    <t>NYKAA</t>
+    <t>BFUTILITIE</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>PCBL</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>ASHAPURMIN</t>
   </si>
   <si>
     <t>JYOTISTRUC</t>
   </si>
   <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>PVRINOX</t>
+  </si>
+  <si>
+    <t>BAJFINANCE</t>
+  </si>
+  <si>
+    <t>NAM-INDIA</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>GMMPFAUDLR</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>ARE&amp;M</t>
+  </si>
+  <si>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>SWSOLAR</t>
+  </si>
+  <si>
+    <t>KAJARIACER</t>
+  </si>
+  <si>
+    <t>MHRIL</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>JSWENERGY</t>
+  </si>
+  <si>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
     <t>DELHIVERY</t>
   </si>
   <si>
-    <t>MANKIND</t>
-  </si>
-  <si>
-    <t>BFUTILITIE</t>
-  </si>
-  <si>
-    <t>AMBER</t>
-  </si>
-  <si>
-    <t>SCHAEFFLER</t>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>ADANIPOWER</t>
+  </si>
+  <si>
+    <t>RAMKY</t>
+  </si>
+  <si>
+    <t>ADANIENSOL</t>
+  </si>
+  <si>
+    <t>BEML</t>
+  </si>
+  <si>
+    <t>HOMEFIRST</t>
+  </si>
+  <si>
+    <t>POLICYBZR</t>
+  </si>
+  <si>
+    <t>ULTRACEMCO</t>
+  </si>
+  <si>
+    <t>DBREALTY</t>
+  </si>
+  <si>
+    <t>COSMOFIRST</t>
+  </si>
+  <si>
+    <t>GPIL</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>RKFORGE</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>PAYTM</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>AUBANK</t>
   </si>
   <si>
     <t>EMAMILTD</t>
   </si>
   <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>CAMPUS</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>EIHOTEL</t>
-  </si>
-  <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>PCBL</t>
-  </si>
-  <si>
-    <t>GODREJCP</t>
-  </si>
-  <si>
-    <t>SWSOLAR</t>
-  </si>
-  <si>
-    <t>UTIAMC</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
-    <t>BALRAMCHIN</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>ELGIEQUIP</t>
-  </si>
-  <si>
-    <t>DBREALTY</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>ICICIPRULI</t>
-  </si>
-  <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
-    <t>ASIANPAINT</t>
-  </si>
-  <si>
-    <t>MUNJALAU</t>
-  </si>
-  <si>
-    <t>ACI</t>
-  </si>
-  <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>RAMKY</t>
-  </si>
-  <si>
-    <t>KAJARIACER</t>
-  </si>
-  <si>
-    <t>BEML</t>
-  </si>
-  <si>
-    <t>PVRINOX</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>RADICO</t>
-  </si>
-  <si>
-    <t>CEATLTD</t>
-  </si>
-  <si>
-    <t>SIGNATURE</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>INTELLECT</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>NAVINFLUOR</t>
-  </si>
-  <si>
-    <t>METROBRAND</t>
-  </si>
-  <si>
-    <t>GMMPFAUDLR</t>
-  </si>
-  <si>
-    <t>TARC</t>
-  </si>
-  <si>
-    <t>NAM-INDIA</t>
-  </si>
-  <si>
-    <t>RTNINDIA</t>
-  </si>
-  <si>
-    <t>STARHEALTH</t>
-  </si>
-  <si>
-    <t>BAJFINANCE</t>
-  </si>
-  <si>
-    <t>APTUS</t>
-  </si>
-  <si>
-    <t>ARE&amp;M</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
-  </si>
-  <si>
-    <t>PFC</t>
-  </si>
-  <si>
-    <t>BBL</t>
-  </si>
-  <si>
-    <t>JSWENERGY</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>BHEL</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>CANFINHOME</t>
-  </si>
-  <si>
-    <t>JUBLINGREA</t>
-  </si>
-  <si>
-    <t>AIAENG</t>
-  </si>
-  <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>JIOFIN</t>
-  </si>
-  <si>
-    <t>SUZLON</t>
-  </si>
-  <si>
-    <t>TFCILTD</t>
-  </si>
-  <si>
-    <t>MSUMI</t>
-  </si>
-  <si>
-    <t>COSMOFIRST</t>
-  </si>
-  <si>
-    <t>JKCEMENT</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
-    <t>SARDAEN</t>
-  </si>
-  <si>
-    <t>AUBANK</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>PAYTM</t>
-  </si>
-  <si>
-    <t>RKFORGE</t>
-  </si>
-  <si>
-    <t>SBFC</t>
-  </si>
-  <si>
-    <t>ADANIPOWER</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO</t>
-  </si>
-  <si>
-    <t>ADANIENSOL</t>
-  </si>
-  <si>
-    <t>HOMEFIRST</t>
-  </si>
-  <si>
-    <t>POLICYBZR</t>
+    <t>SAIL</t>
   </si>
   <si>
     <t>VAIBHAVGBL</t>
   </si>
   <si>
-    <t>THANGAMAYL</t>
-  </si>
-  <si>
-    <t>ERIS</t>
-  </si>
-  <si>
     <t>Higher_Probability_Bull_Reversal</t>
   </si>
   <si>
     <t>LONG</t>
-  </si>
-  <si>
-    <t>41-50</t>
   </si>
   <si>
     <t>31-40</t>
@@ -743,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,34 +732,34 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>1094.12</v>
+        <v>194.26</v>
       </c>
       <c r="E2">
-        <v>1608.05</v>
+        <v>278.87</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>5.857142857142857</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>1222.6</v>
+        <v>215.41</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -836,10 +773,10 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>580.65</v>
+        <v>402.45</v>
       </c>
       <c r="E3">
-        <v>697.86</v>
+        <v>595.4400000000001</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -851,16 +788,16 @@
         <v>7</v>
       </c>
       <c r="I3">
-        <v>609.95</v>
+        <v>450.7</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -871,34 +808,34 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>488.49</v>
+        <v>451.35</v>
       </c>
       <c r="E4">
-        <v>1107.53</v>
+        <v>693.96</v>
       </c>
       <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="G4">
-        <v>5.142857142857143</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
       <c r="I4">
-        <v>643.25</v>
+        <v>512</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -909,34 +846,34 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>151.28</v>
+        <v>487.24</v>
       </c>
       <c r="E5">
-        <v>220.04</v>
+        <v>677.27</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5">
-        <v>5.833333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H5">
         <v>6</v>
       </c>
       <c r="I5">
-        <v>168.47</v>
+        <v>534.75</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -947,34 +884,34 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>227.39</v>
+        <v>582.29</v>
       </c>
       <c r="E6">
-        <v>302.51</v>
+        <v>715.12</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>5.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>246.17</v>
+        <v>615.5</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -985,34 +922,34 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>396.72</v>
+        <v>2928.98</v>
       </c>
       <c r="E7">
-        <v>555.65</v>
+        <v>4053.06</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>5.333333333333333</v>
+        <v>5.8</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>436.45</v>
+        <v>3210</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1023,34 +960,34 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>451.26</v>
+        <v>2227.68</v>
       </c>
       <c r="E8">
-        <v>674.22</v>
+        <v>3480.96</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>507</v>
+        <v>2541</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1061,34 +998,34 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>135.8</v>
+        <v>411.15</v>
       </c>
       <c r="E9">
-        <v>177.87</v>
+        <v>537.36</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>146.32</v>
+        <v>442.7</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1099,34 +1036,34 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>194.24</v>
+        <v>1770.25</v>
       </c>
       <c r="E10">
-        <v>269.23</v>
+        <v>2224.45</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10">
-        <v>212.99</v>
+        <v>1883.8</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1137,34 +1074,34 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>17.12</v>
+        <v>487.72</v>
       </c>
       <c r="E11">
-        <v>27.2</v>
+        <v>1237.24</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>19.64</v>
+        <v>675.1</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1175,34 +1112,34 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>373.13</v>
+        <v>262.58</v>
       </c>
       <c r="E12">
-        <v>542.61</v>
+        <v>360.26</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>5.6</v>
+        <v>6.25</v>
       </c>
       <c r="H12">
         <v>7</v>
       </c>
       <c r="I12">
-        <v>415.5</v>
+        <v>287</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1213,34 +1150,34 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>2231.13</v>
+        <v>135.83</v>
       </c>
       <c r="E13">
-        <v>3119.81</v>
+        <v>185.26</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>7</v>
       </c>
       <c r="I13">
-        <v>2453.3</v>
+        <v>148.19</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1251,34 +1188,34 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>764.15</v>
+        <v>1046.66</v>
       </c>
       <c r="E14">
-        <v>1067.36</v>
+        <v>1360.02</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>5.4</v>
+        <v>5.75</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>839.95</v>
+        <v>1125</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1289,34 +1226,34 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>6606.62</v>
+        <v>2267.56</v>
       </c>
       <c r="E15">
-        <v>10284.12</v>
+        <v>3212.11</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>5.4</v>
+        <v>5.75</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15">
-        <v>7526</v>
+        <v>2503.7</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1327,34 +1264,34 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>3837.29</v>
+        <v>151.23</v>
       </c>
       <c r="E16">
-        <v>5581.34</v>
+        <v>219.3</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>5.2</v>
+        <v>5.75</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16">
-        <v>4273.3</v>
+        <v>168.25</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1365,34 +1302,34 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>543.46</v>
+        <v>1559.11</v>
       </c>
       <c r="E17">
-        <v>682.21</v>
+        <v>2077.08</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>578.15</v>
+        <v>1688.6</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1403,34 +1340,34 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>332.48</v>
+        <v>582.0700000000001</v>
       </c>
       <c r="E18">
-        <v>442.16</v>
+        <v>747.1900000000001</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18">
-        <v>359.9</v>
+        <v>623.35</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1441,34 +1378,34 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>262.58</v>
+        <v>332.53</v>
       </c>
       <c r="E19">
-        <v>360.26</v>
+        <v>452.21</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>287</v>
+        <v>362.45</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1479,34 +1416,34 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>743.75</v>
+        <v>1260.65</v>
       </c>
       <c r="E20">
-        <v>927.75</v>
+        <v>1801.66</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>789.75</v>
+        <v>1395.9</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1517,34 +1454,34 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>353.1</v>
+        <v>176.22</v>
       </c>
       <c r="E21">
-        <v>441.89</v>
+        <v>238.06</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>375.3</v>
+        <v>191.68</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1555,34 +1492,34 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>13790.93</v>
+        <v>1157.72</v>
       </c>
       <c r="E22">
-        <v>22511.21</v>
+        <v>1497.65</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H22">
         <v>7</v>
       </c>
       <c r="I22">
-        <v>15971</v>
+        <v>1242.7</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1593,34 +1530,34 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>392.39</v>
+        <v>104.04</v>
       </c>
       <c r="E23">
-        <v>533.84</v>
+        <v>149.53</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="G23">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>427.75</v>
+        <v>115.41</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1631,34 +1568,34 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>1148.11</v>
+        <v>2029.86</v>
       </c>
       <c r="E24">
-        <v>1728.07</v>
+        <v>2804.03</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>1293.1</v>
+        <v>2223.4</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1669,34 +1606,34 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>297.57</v>
+        <v>237.03</v>
       </c>
       <c r="E25">
-        <v>418.08</v>
+        <v>327.35</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>327.7</v>
+        <v>259.61</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1707,34 +1644,34 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>1260.65</v>
+        <v>5609.57</v>
       </c>
       <c r="E26">
-        <v>1801.66</v>
+        <v>6805.29</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>1395.9</v>
+        <v>5908.5</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1745,34 +1682,34 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>2270.06</v>
+        <v>2467.86</v>
       </c>
       <c r="E27">
-        <v>2869.82</v>
+        <v>3498.43</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>2420</v>
+        <v>2725.5</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1783,34 +1720,34 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>1671.44</v>
+        <v>475.27</v>
       </c>
       <c r="E28">
-        <v>2536.87</v>
+        <v>685.4</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>1887.8</v>
+        <v>527.8</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K28" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1821,34 +1758,34 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>582.29</v>
+        <v>1023.72</v>
       </c>
       <c r="E29">
-        <v>715.12</v>
+        <v>1456.04</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H29">
         <v>6</v>
       </c>
       <c r="I29">
-        <v>615.5</v>
+        <v>1131.8</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L29" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1859,34 +1796,34 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>251.64</v>
+        <v>176.75</v>
       </c>
       <c r="E30">
-        <v>307.49</v>
+        <v>212.2</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H30">
         <v>6</v>
       </c>
       <c r="I30">
-        <v>265.6</v>
+        <v>185.61</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1897,34 +1834,34 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>514.85</v>
+        <v>221.41</v>
       </c>
       <c r="E31">
-        <v>675.46</v>
+        <v>300.17</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>555</v>
+        <v>241.1</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L31" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1935,34 +1872,34 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>213.89</v>
+        <v>251.48</v>
       </c>
       <c r="E32">
-        <v>321.36</v>
+        <v>319.56</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>240.76</v>
+        <v>268.5</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L32" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1973,34 +1910,34 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>475.61</v>
+        <v>3837.61</v>
       </c>
       <c r="E33">
-        <v>644.77</v>
+        <v>5807.16</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>517.9</v>
+        <v>4330</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2011,34 +1948,34 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>1157.72</v>
+        <v>1204.19</v>
       </c>
       <c r="E34">
-        <v>1497.65</v>
+        <v>1453.83</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34">
-        <v>6.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>1242.7</v>
+        <v>1266.6</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L34" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2049,34 +1986,34 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>629.86</v>
+        <v>357.58</v>
       </c>
       <c r="E35">
-        <v>831.21</v>
+        <v>443.26</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35">
-        <v>6.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>680.2</v>
+        <v>379</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L35" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2087,34 +2024,34 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>933.99</v>
+        <v>230.69</v>
       </c>
       <c r="E36">
-        <v>1239.24</v>
+        <v>305.89</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>1010.3</v>
+        <v>249.49</v>
       </c>
       <c r="J36" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K36" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L36" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2125,34 +2062,34 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>422.87</v>
+        <v>314.01</v>
       </c>
       <c r="E37">
-        <v>562.8</v>
+        <v>446.78</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>457.85</v>
+        <v>347.2</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L37" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2163,34 +2100,34 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>1559.11</v>
+        <v>2024.43</v>
       </c>
       <c r="E38">
-        <v>2077.08</v>
+        <v>3177.5</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>1688.6</v>
+        <v>2312.7</v>
       </c>
       <c r="J38" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2201,34 +2138,34 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>1770.25</v>
+        <v>1090.89</v>
       </c>
       <c r="E39">
-        <v>2224.45</v>
+        <v>1899.34</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
       <c r="G39">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>1883.8</v>
+        <v>1293</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L39" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2239,34 +2176,34 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>183.82</v>
+        <v>762.6799999999999</v>
       </c>
       <c r="E40">
-        <v>259.38</v>
+        <v>1132.36</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I40">
-        <v>202.71</v>
+        <v>855.1</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K40" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L40" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2277,34 +2214,34 @@
         <v>51</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>2389.14</v>
+        <v>6605.32</v>
       </c>
       <c r="E41">
-        <v>2914.19</v>
+        <v>11120.04</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="H41">
         <v>6</v>
       </c>
       <c r="I41">
-        <v>2520.4</v>
+        <v>7734</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2315,34 +2252,34 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>73.28</v>
+        <v>160.32</v>
       </c>
       <c r="E42">
-        <v>103.24</v>
+        <v>217.04</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I42">
-        <v>80.77</v>
+        <v>174.5</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2353,34 +2290,34 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>617.3200000000001</v>
+        <v>1123.34</v>
       </c>
       <c r="E43">
-        <v>832.04</v>
+        <v>1391.19</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="H43">
         <v>6</v>
       </c>
       <c r="I43">
-        <v>671</v>
+        <v>1190.3</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L43" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2391,34 +2328,34 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>658.04</v>
+        <v>392.19</v>
       </c>
       <c r="E44">
-        <v>873.89</v>
+        <v>553.42</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I44">
-        <v>712</v>
+        <v>432.5</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L44" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2429,34 +2366,34 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>537.0700000000001</v>
+        <v>358.7</v>
       </c>
       <c r="E45">
-        <v>798.4</v>
+        <v>470.09</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I45">
-        <v>602.4</v>
+        <v>386.55</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L45" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2467,34 +2404,34 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>1044.75</v>
+        <v>425.75</v>
       </c>
       <c r="E46">
-        <v>1585.76</v>
+        <v>598.75</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <v>1180</v>
+        <v>469</v>
       </c>
       <c r="J46" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L46" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2505,34 +2442,34 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>4215.18</v>
+        <v>17.1</v>
       </c>
       <c r="E47">
-        <v>5998.46</v>
+        <v>29.41</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I47">
-        <v>4661</v>
+        <v>20.18</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K47" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L47" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2543,34 +2480,34 @@
         <v>58</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>950.34</v>
+        <v>405.32</v>
       </c>
       <c r="E48">
-        <v>1168.98</v>
+        <v>505.45</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I48">
-        <v>1005</v>
+        <v>430.35</v>
       </c>
       <c r="J48" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K48" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L48" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2581,34 +2518,34 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>3280.17</v>
+        <v>345.12</v>
       </c>
       <c r="E49">
-        <v>4193.49</v>
+        <v>416.65</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I49">
-        <v>3508.5</v>
+        <v>363</v>
       </c>
       <c r="J49" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2619,16 +2556,16 @@
         <v>60</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>14465.43</v>
+        <v>14533.5</v>
       </c>
       <c r="E50">
-        <v>19699.71</v>
+        <v>19743.5</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -2637,16 +2574,16 @@
         <v>5</v>
       </c>
       <c r="I50">
-        <v>15774</v>
+        <v>15836</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K50" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L50" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2657,16 +2594,16 @@
         <v>61</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>2468.26</v>
+        <v>951.35</v>
       </c>
       <c r="E51">
-        <v>3307.21</v>
+        <v>1205.54</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2675,16 +2612,16 @@
         <v>5</v>
       </c>
       <c r="I51">
-        <v>2678</v>
+        <v>1014.9</v>
       </c>
       <c r="J51" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L51" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2695,16 +2632,16 @@
         <v>62</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>3540.76</v>
+        <v>897.34</v>
       </c>
       <c r="E52">
-        <v>4837.73</v>
+        <v>1095.77</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -2713,16 +2650,16 @@
         <v>5</v>
       </c>
       <c r="I52">
-        <v>3865</v>
+        <v>946.95</v>
       </c>
       <c r="J52" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L52" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2733,16 +2670,16 @@
         <v>63</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>1204.19</v>
+        <v>761.48</v>
       </c>
       <c r="E53">
-        <v>1453.83</v>
+        <v>977.38</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -2751,16 +2688,16 @@
         <v>5</v>
       </c>
       <c r="I53">
-        <v>1266.6</v>
+        <v>815.45</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2771,34 +2708,34 @@
         <v>64</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>140453.04</v>
+        <v>659.4400000000001</v>
       </c>
       <c r="E54">
-        <v>180300.89</v>
+        <v>869.87</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>150415</v>
+        <v>712.05</v>
       </c>
       <c r="J54" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L54" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2809,34 +2746,34 @@
         <v>65</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>160.32</v>
+        <v>1161</v>
       </c>
       <c r="E55">
-        <v>217.04</v>
+        <v>1762.21</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>174.5</v>
+        <v>1311.3</v>
       </c>
       <c r="J55" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L55" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2847,34 +2784,34 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>358.7</v>
+        <v>615.62</v>
       </c>
       <c r="E56">
-        <v>470.09</v>
+        <v>811.12</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
       <c r="G56">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>386.55</v>
+        <v>664.5</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K56" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L56" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2885,34 +2822,34 @@
         <v>67</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>2705.36</v>
+        <v>2363.89</v>
       </c>
       <c r="E57">
-        <v>3623.92</v>
+        <v>3432.34</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>2935</v>
+        <v>2631</v>
       </c>
       <c r="J57" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K57" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2923,34 +2860,34 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>425.75</v>
+        <v>947.3</v>
       </c>
       <c r="E58">
-        <v>598.75</v>
+        <v>1100.91</v>
       </c>
       <c r="F58">
         <v>2</v>
       </c>
       <c r="G58">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>469</v>
+        <v>985.7</v>
       </c>
       <c r="J58" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L58" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2961,34 +2898,34 @@
         <v>69</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>328.25</v>
+        <v>802.3099999999999</v>
       </c>
       <c r="E59">
-        <v>396.24</v>
+        <v>1081.06</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I59">
-        <v>345.25</v>
+        <v>872</v>
       </c>
       <c r="J59" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L59" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2999,34 +2936,34 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>1087.82</v>
+        <v>297.41</v>
       </c>
       <c r="E60">
-        <v>1497.75</v>
+        <v>456.17</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>1190.3</v>
+        <v>337.1</v>
       </c>
       <c r="J60" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K60" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L60" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3037,34 +2974,34 @@
         <v>71</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>487.24</v>
+        <v>1044.51</v>
       </c>
       <c r="E61">
-        <v>677.27</v>
+        <v>1636.86</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>534.75</v>
+        <v>1192.6</v>
       </c>
       <c r="J61" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K61" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L61" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3078,10 +3015,10 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>237.43</v>
+        <v>334.05</v>
       </c>
       <c r="E62">
-        <v>329.71</v>
+        <v>421.44</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -3093,16 +3030,16 @@
         <v>5</v>
       </c>
       <c r="I62">
-        <v>260.5</v>
+        <v>355.9</v>
       </c>
       <c r="J62" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K62" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L62" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3113,34 +3050,34 @@
         <v>73</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>4693.77</v>
+        <v>289.63</v>
       </c>
       <c r="E63">
-        <v>6321.49</v>
+        <v>340.1</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63">
-        <v>5100.7</v>
+        <v>302.25</v>
       </c>
       <c r="J63" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L63" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3151,34 +3088,34 @@
         <v>74</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>1107.16</v>
+        <v>497.8</v>
       </c>
       <c r="E64">
-        <v>1453.31</v>
+        <v>629.01</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I64">
-        <v>1193.7</v>
+        <v>530.6</v>
       </c>
       <c r="J64" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K64" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L64" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3189,34 +3126,34 @@
         <v>75</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>1161</v>
+        <v>431.58</v>
       </c>
       <c r="E65">
-        <v>1762.21</v>
+        <v>583.26</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I65">
-        <v>1311.3</v>
+        <v>469.5</v>
       </c>
       <c r="J65" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K65" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L65" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3227,16 +3164,16 @@
         <v>76</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>176.22</v>
+        <v>373.19</v>
       </c>
       <c r="E66">
-        <v>238.06</v>
+        <v>578.4299999999999</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -3245,16 +3182,16 @@
         <v>5</v>
       </c>
       <c r="I66">
-        <v>191.68</v>
+        <v>424.5</v>
       </c>
       <c r="J66" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K66" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L66" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3265,16 +3202,16 @@
         <v>77</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>761.48</v>
+        <v>740.92</v>
       </c>
       <c r="E67">
-        <v>977.38</v>
+        <v>929.42</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -3283,16 +3220,16 @@
         <v>5</v>
       </c>
       <c r="I67">
-        <v>815.45</v>
+        <v>788.05</v>
       </c>
       <c r="J67" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K67" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L67" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3303,16 +3240,16 @@
         <v>78</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>58.14</v>
+        <v>570.1</v>
       </c>
       <c r="E68">
-        <v>91.19</v>
+        <v>759.51</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>5</v>
@@ -3321,16 +3258,16 @@
         <v>5</v>
       </c>
       <c r="I68">
-        <v>66.40000000000001</v>
+        <v>617.45</v>
       </c>
       <c r="J68" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L68" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3341,16 +3278,16 @@
         <v>79</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>401.05</v>
+        <v>536.49</v>
       </c>
       <c r="E69">
-        <v>529.4400000000001</v>
+        <v>856.14</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -3359,16 +3296,16 @@
         <v>5</v>
       </c>
       <c r="I69">
-        <v>433.15</v>
+        <v>616.4</v>
       </c>
       <c r="J69" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L69" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3379,16 +3316,16 @@
         <v>80</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>897.34</v>
+        <v>855.89</v>
       </c>
       <c r="E70">
-        <v>1095.77</v>
+        <v>1058.53</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>5</v>
@@ -3397,16 +3334,16 @@
         <v>5</v>
       </c>
       <c r="I70">
-        <v>946.95</v>
+        <v>906.55</v>
       </c>
       <c r="J70" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K70" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L70" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3417,16 +3354,16 @@
         <v>81</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>314.01</v>
+        <v>4315.2</v>
       </c>
       <c r="E71">
-        <v>425.98</v>
+        <v>5814.41</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -3435,16 +3372,16 @@
         <v>5</v>
       </c>
       <c r="I71">
-        <v>342</v>
+        <v>4690</v>
       </c>
       <c r="J71" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K71" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L71" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3455,16 +3392,16 @@
         <v>82</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>947.3</v>
+        <v>1271.39</v>
       </c>
       <c r="E72">
-        <v>1100.91</v>
+        <v>1913.82</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -3473,16 +3410,16 @@
         <v>5</v>
       </c>
       <c r="I72">
-        <v>985.7</v>
+        <v>1432</v>
       </c>
       <c r="J72" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K72" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L72" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3493,16 +3430,16 @@
         <v>83</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>2363.89</v>
+        <v>1728.61</v>
       </c>
       <c r="E73">
-        <v>3432.34</v>
+        <v>2281.76</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>5</v>
@@ -3511,16 +3448,16 @@
         <v>5</v>
       </c>
       <c r="I73">
-        <v>2631</v>
+        <v>1866.9</v>
       </c>
       <c r="J73" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3531,34 +3468,34 @@
         <v>84</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>289.63</v>
+        <v>12031.07</v>
       </c>
       <c r="E74">
-        <v>340.1</v>
+        <v>14386.79</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>302.25</v>
+        <v>12620</v>
       </c>
       <c r="J74" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L74" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3569,34 +3506,34 @@
         <v>85</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>405.32</v>
+        <v>217.15</v>
       </c>
       <c r="E75">
-        <v>505.45</v>
+        <v>322.56</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>430.35</v>
+        <v>243.5</v>
       </c>
       <c r="J75" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L75" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3607,34 +3544,34 @@
         <v>86</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>2928.98</v>
+        <v>1080.57</v>
       </c>
       <c r="E76">
-        <v>4053.06</v>
+        <v>1572.29</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>3210</v>
+        <v>1203.5</v>
       </c>
       <c r="J76" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K76" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L76" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3645,34 +3582,34 @@
         <v>87</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>497.8</v>
+        <v>175.48</v>
       </c>
       <c r="E77">
-        <v>629.01</v>
+        <v>220.76</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I77">
-        <v>530.6</v>
+        <v>186.8</v>
       </c>
       <c r="J77" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K77" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L77" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3683,34 +3620,34 @@
         <v>88</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78">
-        <v>443.69</v>
+        <v>28178.39</v>
       </c>
       <c r="E78">
-        <v>538.9400000000001</v>
+        <v>34704.82</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>467.5</v>
+        <v>29810</v>
       </c>
       <c r="J78" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L78" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3724,10 +3661,10 @@
         <v>5</v>
       </c>
       <c r="D79">
-        <v>250.1</v>
+        <v>627.7</v>
       </c>
       <c r="E79">
-        <v>309.71</v>
+        <v>842.49</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3739,16 +3676,16 @@
         <v>5</v>
       </c>
       <c r="I79">
-        <v>265</v>
+        <v>681.4</v>
       </c>
       <c r="J79" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L79" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3762,10 +3699,10 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <v>764.88</v>
+        <v>3280.03</v>
       </c>
       <c r="E80">
-        <v>884.95</v>
+        <v>4380.7</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3777,16 +3714,16 @@
         <v>5</v>
       </c>
       <c r="I80">
-        <v>794.9</v>
+        <v>3555.2</v>
       </c>
       <c r="J80" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L80" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3800,10 +3737,10 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>785.02</v>
+        <v>885.51</v>
       </c>
       <c r="E81">
-        <v>940.95</v>
+        <v>1119.67</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3815,16 +3752,16 @@
         <v>5</v>
       </c>
       <c r="I81">
-        <v>824</v>
+        <v>944.05</v>
       </c>
       <c r="J81" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3838,10 +3775,10 @@
         <v>5</v>
       </c>
       <c r="D82">
-        <v>723.54</v>
+        <v>1926.64</v>
       </c>
       <c r="E82">
-        <v>1047.97</v>
+        <v>2264.07</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3853,16 +3790,16 @@
         <v>5</v>
       </c>
       <c r="I82">
-        <v>804.65</v>
+        <v>2011</v>
       </c>
       <c r="J82" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K82" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L82" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3876,10 +3813,10 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>3209.35</v>
+        <v>789.51</v>
       </c>
       <c r="E83">
-        <v>4365.56</v>
+        <v>946.47</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3891,16 +3828,16 @@
         <v>5</v>
       </c>
       <c r="I83">
-        <v>3498.4</v>
+        <v>828.75</v>
       </c>
       <c r="J83" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K83" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L83" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3914,10 +3851,10 @@
         <v>5</v>
       </c>
       <c r="D84">
-        <v>447.91</v>
+        <v>548.3200000000001</v>
       </c>
       <c r="E84">
-        <v>552.48</v>
+        <v>757.83</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3929,16 +3866,16 @@
         <v>5</v>
       </c>
       <c r="I84">
-        <v>474.05</v>
+        <v>600.7</v>
       </c>
       <c r="J84" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K84" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L84" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3952,10 +3889,10 @@
         <v>5</v>
       </c>
       <c r="D85">
-        <v>314.98</v>
+        <v>127.06</v>
       </c>
       <c r="E85">
-        <v>393.05</v>
+        <v>163.09</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3967,16 +3904,16 @@
         <v>5</v>
       </c>
       <c r="I85">
-        <v>334.5</v>
+        <v>136.07</v>
       </c>
       <c r="J85" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K85" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L85" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3990,10 +3927,10 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>62.66</v>
+        <v>228.92</v>
       </c>
       <c r="E86">
-        <v>78.62</v>
+        <v>289.29</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4005,776 +3942,16 @@
         <v>5</v>
       </c>
       <c r="I86">
-        <v>66.65000000000001</v>
+        <v>244.01</v>
       </c>
       <c r="J86" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K86" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="L86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87">
-        <v>5</v>
-      </c>
-      <c r="D87">
-        <v>224.69</v>
-      </c>
-      <c r="E87">
-        <v>461.77</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>5</v>
-      </c>
-      <c r="H87">
-        <v>5</v>
-      </c>
-      <c r="I87">
-        <v>283.96</v>
-      </c>
-      <c r="J87" t="s">
-        <v>117</v>
-      </c>
-      <c r="K87" t="s">
-        <v>118</v>
-      </c>
-      <c r="L87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
-      <c r="D88">
-        <v>59.11</v>
-      </c>
-      <c r="E88">
-        <v>81.66</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>5</v>
-      </c>
-      <c r="H88">
-        <v>5</v>
-      </c>
-      <c r="I88">
-        <v>64.75</v>
-      </c>
-      <c r="J88" t="s">
-        <v>117</v>
-      </c>
-      <c r="K88" t="s">
-        <v>118</v>
-      </c>
-      <c r="L88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89">
-        <v>5</v>
-      </c>
-      <c r="D89">
-        <v>1080.57</v>
-      </c>
-      <c r="E89">
-        <v>1572.29</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>5</v>
-      </c>
-      <c r="H89">
-        <v>5</v>
-      </c>
-      <c r="I89">
-        <v>1203.5</v>
-      </c>
-      <c r="J89" t="s">
-        <v>117</v>
-      </c>
-      <c r="K89" t="s">
-        <v>118</v>
-      </c>
-      <c r="L89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90">
-        <v>5</v>
-      </c>
-      <c r="D90">
-        <v>5822.29</v>
-      </c>
-      <c r="E90">
-        <v>8085.14</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>5</v>
-      </c>
-      <c r="H90">
-        <v>5</v>
-      </c>
-      <c r="I90">
-        <v>6388</v>
-      </c>
-      <c r="J90" t="s">
-        <v>117</v>
-      </c>
-      <c r="K90" t="s">
-        <v>118</v>
-      </c>
-      <c r="L90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-      <c r="D91">
-        <v>28178.39</v>
-      </c>
-      <c r="E91">
-        <v>34704.82</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>5</v>
-      </c>
-      <c r="H91">
-        <v>5</v>
-      </c>
-      <c r="I91">
-        <v>29810</v>
-      </c>
-      <c r="J91" t="s">
-        <v>117</v>
-      </c>
-      <c r="K91" t="s">
-        <v>118</v>
-      </c>
-      <c r="L91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
         <v>102</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>411.15</v>
-      </c>
-      <c r="E92">
-        <v>537.36</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>5</v>
-      </c>
-      <c r="H92">
-        <v>5</v>
-      </c>
-      <c r="I92">
-        <v>442.7</v>
-      </c>
-      <c r="J92" t="s">
-        <v>117</v>
-      </c>
-      <c r="K92" t="s">
-        <v>118</v>
-      </c>
-      <c r="L92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93">
-        <v>5</v>
-      </c>
-      <c r="D93">
-        <v>789.51</v>
-      </c>
-      <c r="E93">
-        <v>946.47</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>5</v>
-      </c>
-      <c r="H93">
-        <v>5</v>
-      </c>
-      <c r="I93">
-        <v>828.75</v>
-      </c>
-      <c r="J93" t="s">
-        <v>117</v>
-      </c>
-      <c r="K93" t="s">
-        <v>118</v>
-      </c>
-      <c r="L93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94">
-        <v>5</v>
-      </c>
-      <c r="D94">
-        <v>345.12</v>
-      </c>
-      <c r="E94">
-        <v>416.65</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>5</v>
-      </c>
-      <c r="H94">
-        <v>5</v>
-      </c>
-      <c r="I94">
-        <v>363</v>
-      </c>
-      <c r="J94" t="s">
-        <v>117</v>
-      </c>
-      <c r="K94" t="s">
-        <v>118</v>
-      </c>
-      <c r="L94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C95">
-        <v>5</v>
-      </c>
-      <c r="D95">
-        <v>885.51</v>
-      </c>
-      <c r="E95">
-        <v>1119.67</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>5</v>
-      </c>
-      <c r="H95">
-        <v>5</v>
-      </c>
-      <c r="I95">
-        <v>944.05</v>
-      </c>
-      <c r="J95" t="s">
-        <v>117</v>
-      </c>
-      <c r="K95" t="s">
-        <v>118</v>
-      </c>
-      <c r="L95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-      <c r="D96">
-        <v>627.7</v>
-      </c>
-      <c r="E96">
-        <v>842.49</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>5</v>
-      </c>
-      <c r="H96">
-        <v>5</v>
-      </c>
-      <c r="I96">
-        <v>681.4</v>
-      </c>
-      <c r="J96" t="s">
-        <v>117</v>
-      </c>
-      <c r="K96" t="s">
-        <v>118</v>
-      </c>
-      <c r="L96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>104.04</v>
-      </c>
-      <c r="E97">
-        <v>149.53</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>5</v>
-      </c>
-      <c r="H97">
-        <v>5</v>
-      </c>
-      <c r="I97">
-        <v>115.41</v>
-      </c>
-      <c r="J97" t="s">
-        <v>117</v>
-      </c>
-      <c r="K97" t="s">
-        <v>118</v>
-      </c>
-      <c r="L97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98">
-        <v>5</v>
-      </c>
-      <c r="D98">
-        <v>570.1</v>
-      </c>
-      <c r="E98">
-        <v>759.51</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>5</v>
-      </c>
-      <c r="H98">
-        <v>5</v>
-      </c>
-      <c r="I98">
-        <v>617.45</v>
-      </c>
-      <c r="J98" t="s">
-        <v>117</v>
-      </c>
-      <c r="K98" t="s">
-        <v>118</v>
-      </c>
-      <c r="L98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>1209.51</v>
-      </c>
-      <c r="E99">
-        <v>1423.86</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>5</v>
-      </c>
-      <c r="H99">
-        <v>5</v>
-      </c>
-      <c r="I99">
-        <v>1263.1</v>
-      </c>
-      <c r="J99" t="s">
-        <v>117</v>
-      </c>
-      <c r="K99" t="s">
-        <v>118</v>
-      </c>
-      <c r="L99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C100">
-        <v>5</v>
-      </c>
-      <c r="D100">
-        <v>12031.07</v>
-      </c>
-      <c r="E100">
-        <v>14386.79</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>5</v>
-      </c>
-      <c r="H100">
-        <v>5</v>
-      </c>
-      <c r="I100">
-        <v>12620</v>
-      </c>
-      <c r="J100" t="s">
-        <v>117</v>
-      </c>
-      <c r="K100" t="s">
-        <v>118</v>
-      </c>
-      <c r="L100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101">
-        <v>5</v>
-      </c>
-      <c r="D101">
-        <v>855.89</v>
-      </c>
-      <c r="E101">
-        <v>1058.53</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>5</v>
-      </c>
-      <c r="H101">
-        <v>5</v>
-      </c>
-      <c r="I101">
-        <v>906.55</v>
-      </c>
-      <c r="J101" t="s">
-        <v>117</v>
-      </c>
-      <c r="K101" t="s">
-        <v>118</v>
-      </c>
-      <c r="L101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102">
-        <v>5</v>
-      </c>
-      <c r="D102">
-        <v>1271.39</v>
-      </c>
-      <c r="E102">
-        <v>1913.82</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <v>5</v>
-      </c>
-      <c r="H102">
-        <v>5</v>
-      </c>
-      <c r="I102">
-        <v>1432</v>
-      </c>
-      <c r="J102" t="s">
-        <v>117</v>
-      </c>
-      <c r="K102" t="s">
-        <v>118</v>
-      </c>
-      <c r="L102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>113</v>
-      </c>
-      <c r="C103">
-        <v>5</v>
-      </c>
-      <c r="D103">
-        <v>1728.61</v>
-      </c>
-      <c r="E103">
-        <v>2281.76</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>5</v>
-      </c>
-      <c r="H103">
-        <v>5</v>
-      </c>
-      <c r="I103">
-        <v>1866.9</v>
-      </c>
-      <c r="J103" t="s">
-        <v>117</v>
-      </c>
-      <c r="K103" t="s">
-        <v>118</v>
-      </c>
-      <c r="L103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>114</v>
-      </c>
-      <c r="C104">
-        <v>5</v>
-      </c>
-      <c r="D104">
-        <v>228.92</v>
-      </c>
-      <c r="E104">
-        <v>289.29</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104">
-        <v>5</v>
-      </c>
-      <c r="H104">
-        <v>5</v>
-      </c>
-      <c r="I104">
-        <v>244.01</v>
-      </c>
-      <c r="J104" t="s">
-        <v>117</v>
-      </c>
-      <c r="K104" t="s">
-        <v>118</v>
-      </c>
-      <c r="L104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>115</v>
-      </c>
-      <c r="C105">
-        <v>5</v>
-      </c>
-      <c r="D105">
-        <v>1821.45</v>
-      </c>
-      <c r="E105">
-        <v>2279.66</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>5</v>
-      </c>
-      <c r="H105">
-        <v>5</v>
-      </c>
-      <c r="I105">
-        <v>1936</v>
-      </c>
-      <c r="J105" t="s">
-        <v>117</v>
-      </c>
-      <c r="K105" t="s">
-        <v>118</v>
-      </c>
-      <c r="L105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106">
-        <v>5</v>
-      </c>
-      <c r="D106">
-        <v>1565.78</v>
-      </c>
-      <c r="E106">
-        <v>2211.06</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>5</v>
-      </c>
-      <c r="H106">
-        <v>5</v>
-      </c>
-      <c r="I106">
-        <v>1727.1</v>
-      </c>
-      <c r="J106" t="s">
-        <v>117</v>
-      </c>
-      <c r="K106" t="s">
-        <v>118</v>
-      </c>
-      <c r="L106" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Daily/Plan/Consolidated_Score_Latest.xlsx
+++ b/Daily/Plan/Consolidated_Score_Latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,29 +501,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>MAXESTATES</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>332.08</v>
+        <v>500.2</v>
       </c>
       <c r="E2" t="n">
-        <v>490.37</v>
+        <v>656.59</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>6.375</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="H2" t="n">
         <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>371.65</v>
+        <v>539.3</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>50+</t>
+          <t>41-50</t>
         </is>
       </c>
     </row>
@@ -547,29 +547,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SHYAMMETL</t>
+          <t>KCP</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>829.79</v>
+        <v>193.31</v>
       </c>
       <c r="E3" t="n">
-        <v>1052.82</v>
+        <v>270.98</v>
       </c>
       <c r="F3" t="n">
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>6.571428571428571</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>885.55</v>
+        <v>212.73</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -593,29 +593,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>MAHLIFE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>1633.63</v>
+        <v>351.51</v>
       </c>
       <c r="E4" t="n">
-        <v>2231.5</v>
+        <v>439.08</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>6.142857142857143</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>1783.1</v>
+        <v>373.4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>41-50</t>
+          <t>31-40</t>
         </is>
       </c>
     </row>
@@ -639,29 +639,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NLCINDIA</t>
+          <t>CHEMPLASTS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>223.4</v>
+        <v>405.38</v>
       </c>
       <c r="E5" t="n">
-        <v>272.61</v>
+        <v>590.67</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.857142857142857</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>235.7</v>
+        <v>451.7</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>41-50</t>
+          <t>31-40</t>
         </is>
       </c>
     </row>
@@ -685,29 +685,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>THERMAX</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>3339.34</v>
+        <v>718</v>
       </c>
       <c r="E6" t="n">
-        <v>4261.19</v>
+        <v>915.39</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>5.571428571428571</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>3569.8</v>
+        <v>767.35</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -731,29 +731,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CRAFTSMAN</t>
+          <t>NUVOCO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>5746.98</v>
+        <v>355.79</v>
       </c>
       <c r="E7" t="n">
-        <v>7493.05</v>
+        <v>512.4299999999999</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>6.333333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>6183.5</v>
+        <v>394.95</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -777,29 +777,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>4997.12</v>
+        <v>154.13</v>
       </c>
       <c r="E8" t="n">
-        <v>6264.64</v>
+        <v>185.54</v>
       </c>
       <c r="F8" t="n">
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>6.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>5314</v>
+        <v>161.98</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>31-40</t>
+          <t>21-30</t>
         </is>
       </c>
     </row>
@@ -823,29 +823,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>233.42</v>
+        <v>2165.64</v>
       </c>
       <c r="E9" t="n">
-        <v>280.66</v>
+        <v>2927.48</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>5.285714285714286</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>245.23</v>
+        <v>2356.1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>31-40</t>
+          <t>21-30</t>
         </is>
       </c>
     </row>
@@ -869,29 +869,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>FLUOROCHEM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>593.8099999999999</v>
+        <v>3296.95</v>
       </c>
       <c r="E10" t="n">
-        <v>701.76</v>
+        <v>4077.16</v>
       </c>
       <c r="F10" t="n">
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>6.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>620.8</v>
+        <v>3492</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>31-40</t>
+          <t>21-30</t>
         </is>
       </c>
     </row>
@@ -915,29 +915,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GREENPLY</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>295.41</v>
+        <v>4990.77</v>
       </c>
       <c r="E11" t="n">
-        <v>388.58</v>
+        <v>7273.7</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>5.833333333333333</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>318.7</v>
+        <v>5561.5</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>31-40</t>
+          <t>21-30</t>
         </is>
       </c>
     </row>
@@ -961,29 +961,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>PRAKASH</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>444.96</v>
+        <v>154.96</v>
       </c>
       <c r="E12" t="n">
-        <v>581.9299999999999</v>
+        <v>249.13</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>479.2</v>
+        <v>178.5</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>31-40</t>
+          <t>21-30</t>
         </is>
       </c>
     </row>
@@ -1007,29 +1007,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>110.05</v>
+        <v>2113.54</v>
       </c>
       <c r="E13" t="n">
-        <v>138.08</v>
+        <v>2670.18</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>5.333333333333333</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>117.06</v>
+        <v>2252.7</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>31-40</t>
+          <t>21-30</t>
         </is>
       </c>
     </row>
@@ -1053,29 +1053,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>170.97</v>
+        <v>946.46</v>
       </c>
       <c r="E14" t="n">
-        <v>216.44</v>
+        <v>1217.82</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>5.333333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="H14" t="n">
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>182.34</v>
+        <v>1014.3</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>31-40</t>
+          <t>21-30</t>
         </is>
       </c>
     </row>
@@ -1099,29 +1099,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NAM-INDIA</t>
+          <t>KRBL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>785.37</v>
+        <v>367.51</v>
       </c>
       <c r="E15" t="n">
-        <v>1072.9</v>
+        <v>540.46</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>5.333333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>857.25</v>
+        <v>410.75</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>31-40</t>
+          <t>21-30</t>
         </is>
       </c>
     </row>
@@ -1145,29 +1145,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GLAND</t>
+          <t>SAREGAMA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>1808.64</v>
+        <v>472.77</v>
       </c>
       <c r="E16" t="n">
-        <v>2434.08</v>
+        <v>641.29</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.8</v>
+        <v>6.25</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>1965</v>
+        <v>514.9</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1191,29 +1191,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>766.61</v>
+        <v>7974.73</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.16</v>
+        <v>9513.799999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>851</v>
+        <v>8359.5</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1237,29 +1237,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HEG</t>
+          <t>WHIRLPOOL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>486.36</v>
+        <v>1325.71</v>
       </c>
       <c r="E18" t="n">
-        <v>669.72</v>
+        <v>1724.86</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>5.6</v>
+        <v>5.75</v>
       </c>
       <c r="H18" t="n">
         <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>532.2</v>
+        <v>1425.5</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1283,29 +1283,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>METROBRAND</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>3248.39</v>
+        <v>1132.67</v>
       </c>
       <c r="E19" t="n">
-        <v>4070.82</v>
+        <v>1468.39</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>5.4</v>
+        <v>5.75</v>
       </c>
       <c r="H19" t="n">
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>3454</v>
+        <v>1216.6</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1329,29 +1329,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SUMICHEM</t>
+          <t>BORORENEW</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>521.35</v>
+        <v>485.56</v>
       </c>
       <c r="E20" t="n">
-        <v>728.9400000000001</v>
+        <v>924.13</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
         <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>573.25</v>
+        <v>595.2</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1375,29 +1375,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NETWORK18</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>53.59</v>
+        <v>380.9</v>
       </c>
       <c r="E21" t="n">
-        <v>80.8</v>
+        <v>585.7</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>6.75</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>60.39</v>
+        <v>432.1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1421,29 +1421,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>KIMS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>799.28</v>
+        <v>688.0599999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>925.75</v>
+        <v>982.41</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H22" t="n">
         <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>830.9</v>
+        <v>761.65</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1467,29 +1467,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PPLPHARMA</t>
+          <t>ASHAPURMIN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>195.86</v>
+        <v>434.32</v>
       </c>
       <c r="E23" t="n">
-        <v>273.54</v>
+        <v>993.03</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H23" t="n">
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>215.28</v>
+        <v>574</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1513,29 +1513,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PNCINFRA</t>
+          <t>PATANJALI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>295.4</v>
+        <v>1628.46</v>
       </c>
       <c r="E24" t="n">
-        <v>359.59</v>
+        <v>2834.63</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="H24" t="n">
         <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>311.45</v>
+        <v>1930</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1559,29 +1559,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHALET</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>842.2</v>
+        <v>251.51</v>
       </c>
       <c r="E25" t="n">
-        <v>1150.8</v>
+        <v>324.26</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>919.35</v>
+        <v>269.7</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1605,29 +1605,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SWANENERGY</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>439.33</v>
+        <v>580.22</v>
       </c>
       <c r="E26" t="n">
-        <v>759.21</v>
+        <v>685.54</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H26" t="n">
         <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>519.3</v>
+        <v>606.55</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1651,29 +1651,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>883.85</v>
+        <v>637.8200000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>1377.26</v>
+        <v>901.74</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>5.75</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>1007.2</v>
+        <v>703.8</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1697,29 +1697,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NUVOCO</t>
+          <t>IIFL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>346.67</v>
+        <v>504.8</v>
       </c>
       <c r="E28" t="n">
-        <v>454.19</v>
+        <v>629.8</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>373.55</v>
+        <v>536.05</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1743,29 +1743,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ALLCARGO</t>
+          <t>RRKABEL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>32.71</v>
+        <v>1293.9</v>
       </c>
       <c r="E29" t="n">
-        <v>52.87</v>
+        <v>2045.89</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>37.75</v>
+        <v>1481.9</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1789,29 +1789,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GRANULES</t>
+          <t>TATACOMM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>460.85</v>
+        <v>1660.34</v>
       </c>
       <c r="E30" t="n">
-        <v>606.84</v>
+        <v>2103.77</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>497.35</v>
+        <v>1771.2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1835,29 +1835,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EPACK</t>
+          <t>SUMICHEM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>350.6</v>
+        <v>520.77</v>
       </c>
       <c r="E31" t="n">
-        <v>462.21</v>
+        <v>849.49</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>378.5</v>
+        <v>602.95</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1881,29 +1881,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GPIL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>179.5</v>
+        <v>184.73</v>
       </c>
       <c r="E32" t="n">
-        <v>247.6</v>
+        <v>226.02</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>196.52</v>
+        <v>195.05</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1927,29 +1927,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FINPIPE</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>201.31</v>
+        <v>196.12</v>
       </c>
       <c r="E33" t="n">
-        <v>246.07</v>
+        <v>250.03</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>212.5</v>
+        <v>209.6</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1973,29 +1973,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TANLA</t>
+          <t>NMDC</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>624.12</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>839.22</v>
+        <v>82.62</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>677.9</v>
+        <v>70.93000000000001</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -2019,29 +2019,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GRINDWELL</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>1674.46</v>
+        <v>267.22</v>
       </c>
       <c r="E35" t="n">
-        <v>2122.61</v>
+        <v>378.94</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>1786.5</v>
+        <v>295.15</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -2065,29 +2065,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SYNGENE</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
-        <v>614.17</v>
+        <v>172.17</v>
       </c>
       <c r="E36" t="n">
-        <v>817.5</v>
+        <v>231.5</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>5.25</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>665</v>
+        <v>187</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -2111,29 +2111,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MHRIL</t>
+          <t>TIMKEN</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>337.21</v>
+        <v>3239.83</v>
       </c>
       <c r="E37" t="n">
-        <v>421.17</v>
+        <v>4184.5</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>358.2</v>
+        <v>3476</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -2157,29 +2157,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SHK</t>
+          <t>THOMASCOOK</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>222.5</v>
+        <v>158.31</v>
       </c>
       <c r="E38" t="n">
-        <v>295.09</v>
+        <v>235.43</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>240.65</v>
+        <v>177.59</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -2203,29 +2203,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NUVAMA</t>
+          <t>SAMMAANCAP</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>6949.3</v>
+        <v>121.04</v>
       </c>
       <c r="E39" t="n">
-        <v>10396.09</v>
+        <v>180.89</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>7811</v>
+        <v>136</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -2249,29 +2249,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PENIND</t>
+          <t>AZAD</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>221.36</v>
+        <v>1522.54</v>
       </c>
       <c r="E40" t="n">
-        <v>309.11</v>
+        <v>1975.98</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>243.3</v>
+        <v>1635.9</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -2295,29 +2295,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BBTC</t>
+          <t>GMDCLTD</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>1897.15</v>
+        <v>368.07</v>
       </c>
       <c r="E41" t="n">
-        <v>2378.15</v>
+        <v>580.39</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>2017.4</v>
+        <v>421.15</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -2341,20 +2341,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TATAELXSI</t>
+          <t>BBL</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>5584.91</v>
+        <v>2936.31</v>
       </c>
       <c r="E42" t="n">
-        <v>8805.27</v>
+        <v>4591.08</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
@@ -2363,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>6390</v>
+        <v>3350</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2387,20 +2387,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>OLECTRA</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>1188.11</v>
+        <v>1399.19</v>
       </c>
       <c r="E43" t="n">
-        <v>1515.68</v>
+        <v>1643.24</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -2409,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>1270</v>
+        <v>1460.2</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2433,29 +2433,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PRAKASH</t>
+          <t>CHENNPETRO</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>155.26</v>
+        <v>696.88</v>
       </c>
       <c r="E44" t="n">
-        <v>212.39</v>
+        <v>1016.97</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>169.54</v>
+        <v>776.9</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2479,29 +2479,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAHSEAMLES</t>
+          <t>GPPL</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
-        <v>677.2</v>
+        <v>154.65</v>
       </c>
       <c r="E45" t="n">
-        <v>864.8099999999999</v>
+        <v>188.06</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>724.1</v>
+        <v>163</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2525,29 +2525,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AJANTPHARM</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>2537.75</v>
+        <v>908.73</v>
       </c>
       <c r="E46" t="n">
-        <v>3440.76</v>
+        <v>1108.01</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>2763.5</v>
+        <v>958.55</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2571,29 +2571,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MEDPLUS</t>
+          <t>RAYMOND</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>831.52</v>
+        <v>677.51</v>
       </c>
       <c r="E47" t="n">
-        <v>1209.44</v>
+        <v>971.08</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>926</v>
+        <v>750.9</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2617,29 +2617,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TIMETECHNO</t>
+          <t>MMTC</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>429.26</v>
+        <v>66.08</v>
       </c>
       <c r="E48" t="n">
-        <v>549.83</v>
+        <v>87.95</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>6.333333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>459.4</v>
+        <v>71.55</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2663,29 +2663,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BALKRISIND</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>2606.32</v>
+        <v>4083.62</v>
       </c>
       <c r="E49" t="n">
-        <v>3149.05</v>
+        <v>4923.55</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>6.333333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>2742</v>
+        <v>4293.6</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2709,29 +2709,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LXCHEM</t>
+          <t>FORTIS</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>188.43</v>
+        <v>747.16</v>
       </c>
       <c r="E50" t="n">
-        <v>244.08</v>
+        <v>1002.12</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>202.34</v>
+        <v>810.9</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>THOMASCOOK</t>
+          <t>SAPPHIRE</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>158.48</v>
+        <v>319.42</v>
       </c>
       <c r="E51" t="n">
-        <v>230.07</v>
+        <v>432.14</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>176.38</v>
+        <v>347.6</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -2801,29 +2801,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RRKABEL</t>
+          <t>ANANDRATHI</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>1296.07</v>
+        <v>2014.57</v>
       </c>
       <c r="E52" t="n">
-        <v>1939.8</v>
+        <v>4475.9</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>1457</v>
+        <v>2629.9</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -2847,29 +2847,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ALKEM</t>
+          <t>SHK</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>4673.45</v>
+        <v>222.76</v>
       </c>
       <c r="E53" t="n">
-        <v>5975.66</v>
+        <v>329.72</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>4999</v>
+        <v>249.5</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -2893,29 +2893,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TATAPOWER</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>392.09</v>
+        <v>1126.4</v>
       </c>
       <c r="E54" t="n">
-        <v>462.74</v>
+        <v>1513.61</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>409.75</v>
+        <v>1223.2</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -2939,29 +2939,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SONACOMS</t>
+          <t>ECLERX</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>439.42</v>
+        <v>3457.14</v>
       </c>
       <c r="E55" t="n">
-        <v>578.9299999999999</v>
+        <v>4528.57</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>474.3</v>
+        <v>3725</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -2985,29 +2985,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>JBCHEPHARM</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>973.49</v>
+        <v>1591.1</v>
       </c>
       <c r="E56" t="n">
-        <v>1251.53</v>
+        <v>1933.9</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>1043</v>
+        <v>1676.8</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3031,29 +3031,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CERA</t>
+          <t>KAJARIACER</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>6354</v>
+        <v>1145.97</v>
       </c>
       <c r="E57" t="n">
-        <v>8968</v>
+        <v>1550.5</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>7007.5</v>
+        <v>1247.1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3077,29 +3077,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KIMS</t>
+          <t>PAYTM</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>688.67</v>
+        <v>952.61</v>
       </c>
       <c r="E58" t="n">
-        <v>884.59</v>
+        <v>1200.18</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>737.65</v>
+        <v>1014.5</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3123,29 +3123,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>JUBLPHARMA</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>747.13</v>
+        <v>1158.04</v>
       </c>
       <c r="E59" t="n">
-        <v>978.8</v>
+        <v>1463.89</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>805.05</v>
+        <v>1234.5</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3169,29 +3169,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GICRE</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>368.83</v>
+        <v>444.91</v>
       </c>
       <c r="E60" t="n">
-        <v>457.52</v>
+        <v>619.27</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>391</v>
+        <v>488.5</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3215,29 +3215,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>SHYAMMETL</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>2165.11</v>
+        <v>877</v>
       </c>
       <c r="E61" t="n">
-        <v>2841.46</v>
+        <v>1074.79</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>2334.2</v>
+        <v>926.45</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3261,29 +3261,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VGUARD</t>
+          <t>TATAINVEST</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>384.35</v>
+        <v>6437.54</v>
       </c>
       <c r="E62" t="n">
-        <v>464.74</v>
+        <v>8275.389999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>404.45</v>
+        <v>6897</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3307,29 +3307,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>SKFINDIA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>4731.59</v>
       </c>
       <c r="E63" t="n">
-        <v>10.16</v>
+        <v>5746.44</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
         <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>7.79</v>
+        <v>4985.3</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3353,29 +3353,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AWL</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>257.12</v>
+        <v>5344.59</v>
       </c>
       <c r="E64" t="n">
-        <v>348.45</v>
+        <v>7124.23</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>6</v>
       </c>
       <c r="I64" t="n">
-        <v>279.95</v>
+        <v>5789.5</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3399,29 +3399,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>UNOMINDA</t>
+          <t>DELHIVERY</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1046.88</v>
+        <v>399.14</v>
       </c>
       <c r="E65" t="n">
-        <v>1348.57</v>
+        <v>535.79</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
         <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>1122.3</v>
+        <v>433.3</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3445,29 +3445,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIOCON</t>
+          <t>JKCEMENT</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>364.36</v>
+        <v>6227.73</v>
       </c>
       <c r="E66" t="n">
-        <v>494.92</v>
+        <v>7788.8</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>397</v>
+        <v>6618</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3491,29 +3491,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>STLTECH</t>
+          <t>LATENTVIEW</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>97.33</v>
+        <v>402.91</v>
       </c>
       <c r="E67" t="n">
-        <v>180.76</v>
+        <v>544.87</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>118.19</v>
+        <v>438.4</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3537,29 +3537,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>DEEPINDS</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>638.0599999999999</v>
+        <v>434.6</v>
       </c>
       <c r="E68" t="n">
-        <v>851.8099999999999</v>
+        <v>605.41</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>691.5</v>
+        <v>477.3</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3583,20 +3583,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TMB</t>
+          <t>DEVYANI</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>434.61</v>
+        <v>164.06</v>
       </c>
       <c r="E69" t="n">
-        <v>500.57</v>
+        <v>220.25</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
@@ -3605,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>451.1</v>
+        <v>178.11</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3629,20 +3629,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>OPTIEMUS</t>
+          <t>VAIBHAVGBL</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>584.3</v>
+        <v>231.1</v>
       </c>
       <c r="E70" t="n">
-        <v>805.51</v>
+        <v>292.21</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -3651,7 +3651,7 @@
         <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>639.6</v>
+        <v>246.38</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3675,20 +3675,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NATCOPHARM</t>
+          <t>SOBHA</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>936.05</v>
+        <v>1467.38</v>
       </c>
       <c r="E71" t="n">
-        <v>1402.45</v>
+        <v>2417.45</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -3697,7 +3697,7 @@
         <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>1052.65</v>
+        <v>1704.9</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3721,20 +3721,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>SWANENERGY</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>176.78</v>
+        <v>438.82</v>
       </c>
       <c r="E72" t="n">
-        <v>237.27</v>
+        <v>741.54</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -3743,7 +3743,7 @@
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>191.9</v>
+        <v>514.5</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3767,20 +3767,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EASEMYTRIP</t>
+          <t>MAPMYINDIA</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>10.21</v>
+        <v>1726.42</v>
       </c>
       <c r="E73" t="n">
-        <v>12.73</v>
+        <v>2121.14</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -3789,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>10.84</v>
+        <v>1825.1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3813,29 +3813,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CONCORDBIO</t>
+          <t>TRITURBINE</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>1751.15</v>
+        <v>623</v>
       </c>
       <c r="E74" t="n">
-        <v>2371.76</v>
+        <v>807</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>1906.3</v>
+        <v>669</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3859,29 +3859,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>CENTENKA</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>3553.8</v>
+        <v>494.4</v>
       </c>
       <c r="E75" t="n">
-        <v>4968.99</v>
+        <v>616.79</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>3907.6</v>
+        <v>525</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3905,29 +3905,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BRIGADE</t>
+          <t>SUNDARMFIN</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>1036.76</v>
+        <v>4868.88</v>
       </c>
       <c r="E76" t="n">
-        <v>1424.91</v>
+        <v>6051.38</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>1133.8</v>
+        <v>5164.5</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3951,29 +3951,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CGCL</t>
+          <t>CHALET</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>162.42</v>
+        <v>841.74</v>
       </c>
       <c r="E77" t="n">
-        <v>235.17</v>
+        <v>1197.17</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>180.61</v>
+        <v>930.6</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -3997,29 +3997,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CHEMPLASTS</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>404.68</v>
+        <v>905.75</v>
       </c>
       <c r="E78" t="n">
-        <v>511.36</v>
+        <v>1076.75</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>431.35</v>
+        <v>948.5</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -4043,29 +4043,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ASHAPURMIN</t>
+          <t>HEG</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>435.32</v>
+        <v>486.36</v>
       </c>
       <c r="E79" t="n">
-        <v>907.4299999999999</v>
+        <v>698.13</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>553.35</v>
+        <v>539.3</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -4089,29 +4089,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MVGJL</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>214.13</v>
+        <v>374.12</v>
       </c>
       <c r="E80" t="n">
-        <v>284.12</v>
+        <v>444.84</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I80" t="n">
-        <v>231.63</v>
+        <v>391.8</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -4135,20 +4135,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>CRAFTSMAN</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>107.34</v>
+        <v>5801.79</v>
       </c>
       <c r="E81" t="n">
-        <v>137.99</v>
+        <v>8712.639999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>115</v>
+        <v>6529.5</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4181,20 +4181,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J&amp;KBANK</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>106.33</v>
+        <v>3427.49</v>
       </c>
       <c r="E82" t="n">
-        <v>139.6</v>
+        <v>4159.13</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -4203,7 +4203,7 @@
         <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>114.65</v>
+        <v>3610.4</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4227,20 +4227,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCC</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>217.26</v>
+        <v>3050.1</v>
       </c>
       <c r="E83" t="n">
-        <v>273.33</v>
+        <v>3834.89</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -4249,7 +4249,7 @@
         <v>5</v>
       </c>
       <c r="I83" t="n">
-        <v>231.28</v>
+        <v>3246.3</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4273,20 +4273,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ESCORTS</t>
+          <t>PIIND</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>3218.75</v>
+        <v>3974.05</v>
       </c>
       <c r="E84" t="n">
-        <v>3962.16</v>
+        <v>4813.84</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -4295,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="I84" t="n">
-        <v>3404.6</v>
+        <v>4184</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4319,20 +4319,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MINDACORP</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>501.75</v>
+        <v>557.6900000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>629.14</v>
+        <v>690.9400000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="n">
-        <v>533.6</v>
+        <v>591</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4365,20 +4365,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>ARE&amp;M</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>1431.73</v>
+        <v>966.17</v>
       </c>
       <c r="E86" t="n">
-        <v>1786.8</v>
+        <v>1152.7</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>5</v>
@@ -4387,7 +4387,7 @@
         <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>1520.5</v>
+        <v>1012.8</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4411,20 +4411,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TIMKEN</t>
+          <t>JGCHEM</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>3217.99</v>
+        <v>467.96</v>
       </c>
       <c r="E87" t="n">
-        <v>4089.63</v>
+        <v>796.11</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>5</v>
@@ -4433,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="I87" t="n">
-        <v>3435.9</v>
+        <v>550</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>3417.91</v>
+        <v>436.59</v>
       </c>
       <c r="E88" t="n">
-        <v>4152.27</v>
+        <v>536.23</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -4479,7 +4479,7 @@
         <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>3601.5</v>
+        <v>461.5</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4503,20 +4503,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ASAHIINDIA</t>
+          <t>CONCORDBIO</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>781.89</v>
+        <v>1750.6</v>
       </c>
       <c r="E89" t="n">
-        <v>1117.53</v>
+        <v>2512.21</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>5</v>
@@ -4525,7 +4525,7 @@
         <v>5</v>
       </c>
       <c r="I89" t="n">
-        <v>865.8</v>
+        <v>1941</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4549,20 +4549,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DELHIVERY</t>
+          <t>MASTEK</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>399.29</v>
+        <v>2412.24</v>
       </c>
       <c r="E90" t="n">
-        <v>502.94</v>
+        <v>3740.07</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="n">
-        <v>425.2</v>
+        <v>2744.2</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4595,20 +4595,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BORORENEW</t>
+          <t>LEMONTREE</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>485.04</v>
+        <v>145.32</v>
       </c>
       <c r="E91" t="n">
-        <v>868.88</v>
+        <v>194.4</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
@@ -4617,7 +4617,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="n">
-        <v>581</v>
+        <v>157.59</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4641,20 +4641,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CAPLIPOINT</t>
+          <t>DEEPAKFERT</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>1975.43</v>
+        <v>1497.89</v>
       </c>
       <c r="E92" t="n">
-        <v>2486.91</v>
+        <v>2032.32</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -4663,7 +4663,7 @@
         <v>5</v>
       </c>
       <c r="I92" t="n">
-        <v>2103.3</v>
+        <v>1631.5</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4687,20 +4687,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FINEORG</t>
+          <t>SCHAEFFLER</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>4921.18</v>
+        <v>4020.86</v>
       </c>
       <c r="E93" t="n">
-        <v>6936.46</v>
+        <v>5323.01</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>5</v>
@@ -4709,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="I93" t="n">
-        <v>5425</v>
+        <v>4346.4</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4733,29 +4733,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>ELGIEQUIP</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>829.0700000000001</v>
+        <v>521.63</v>
       </c>
       <c r="E94" t="n">
-        <v>1056.79</v>
+        <v>667.1</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I94" t="n">
-        <v>886</v>
+        <v>558</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4768,2076 +4768,6 @@
         </is>
       </c>
       <c r="L94" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>POKARNA</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>6</v>
-      </c>
-      <c r="D95" t="n">
-        <v>971.6</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1344.81</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>6</v>
-      </c>
-      <c r="H95" t="n">
-        <v>6</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1064.9</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>EIHOTEL</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>6</v>
-      </c>
-      <c r="D96" t="n">
-        <v>369.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>454.31</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="n">
-        <v>6</v>
-      </c>
-      <c r="H96" t="n">
-        <v>6</v>
-      </c>
-      <c r="I96" t="n">
-        <v>391</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>POLYCAB</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>6</v>
-      </c>
-      <c r="D97" t="n">
-        <v>6577.48</v>
-      </c>
-      <c r="E97" t="n">
-        <v>8245.549999999999</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>6</v>
-      </c>
-      <c r="H97" t="n">
-        <v>6</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6994.5</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>BIKAJI</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>710.22</v>
-      </c>
-      <c r="E98" t="n">
-        <v>876.55</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="n">
-        <v>5</v>
-      </c>
-      <c r="H98" t="n">
-        <v>5</v>
-      </c>
-      <c r="I98" t="n">
-        <v>751.8</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>PRESTIGE</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>5</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1670.27</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2129.2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="n">
-        <v>5</v>
-      </c>
-      <c r="H99" t="n">
-        <v>5</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1785</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>LODHA</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>5</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1363.05</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1682.84</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="n">
-        <v>5</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1443</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>HEROMOTOCO</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>5</v>
-      </c>
-      <c r="D101" t="n">
-        <v>4143.84</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5248.47</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="n">
-        <v>5</v>
-      </c>
-      <c r="H101" t="n">
-        <v>5</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4420</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ERIS</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>5</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1624.11</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2213.68</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="n">
-        <v>5</v>
-      </c>
-      <c r="H102" t="n">
-        <v>5</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1771.5</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>CGPOWER</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>5</v>
-      </c>
-      <c r="D103" t="n">
-        <v>653.46</v>
-      </c>
-      <c r="E103" t="n">
-        <v>795.03</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="n">
-        <v>5</v>
-      </c>
-      <c r="H103" t="n">
-        <v>5</v>
-      </c>
-      <c r="I103" t="n">
-        <v>688.85</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>COROMANDEL</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>5</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2113.96</v>
-      </c>
-      <c r="E104" t="n">
-        <v>3246.11</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="n">
-        <v>5</v>
-      </c>
-      <c r="H104" t="n">
-        <v>5</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2397</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>AVANTIFEED</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>700.02</v>
-      </c>
-      <c r="E105" t="n">
-        <v>908.13</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" t="n">
-        <v>5</v>
-      </c>
-      <c r="H105" t="n">
-        <v>5</v>
-      </c>
-      <c r="I105" t="n">
-        <v>752.05</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>TVSMOTOR</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>5</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2718.22</v>
-      </c>
-      <c r="E106" t="n">
-        <v>3441.34</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" t="n">
-        <v>5</v>
-      </c>
-      <c r="H106" t="n">
-        <v>5</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2899</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>APARINDS</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>8447.700000000001</v>
-      </c>
-      <c r="E107" t="n">
-        <v>11444.91</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" t="n">
-        <v>5</v>
-      </c>
-      <c r="H107" t="n">
-        <v>5</v>
-      </c>
-      <c r="I107" t="n">
-        <v>9197</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>MEDANTA</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>5</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1091.65</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2099.06</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" t="n">
-        <v>5</v>
-      </c>
-      <c r="H108" t="n">
-        <v>5</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1343.5</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>UBL</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>5</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1919.3</v>
-      </c>
-      <c r="E109" t="n">
-        <v>2286.09</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" t="n">
-        <v>5</v>
-      </c>
-      <c r="H109" t="n">
-        <v>5</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2011</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>NESTLEIND</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>2357.57</v>
-      </c>
-      <c r="E110" t="n">
-        <v>2863.7</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" t="n">
-        <v>5</v>
-      </c>
-      <c r="H110" t="n">
-        <v>5</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2484.1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>SOBHA</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1467.99</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2353.24</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" t="n">
-        <v>5</v>
-      </c>
-      <c r="H111" t="n">
-        <v>5</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1689.3</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>FEDERALBNK</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>5</v>
-      </c>
-      <c r="D112" t="n">
-        <v>204.42</v>
-      </c>
-      <c r="E112" t="n">
-        <v>247.26</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="n">
-        <v>5</v>
-      </c>
-      <c r="H112" t="n">
-        <v>5</v>
-      </c>
-      <c r="I112" t="n">
-        <v>215.13</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ACI</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>631.42</v>
-      </c>
-      <c r="E113" t="n">
-        <v>850.9299999999999</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" t="n">
-        <v>5</v>
-      </c>
-      <c r="H113" t="n">
-        <v>5</v>
-      </c>
-      <c r="I113" t="n">
-        <v>686.3</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>KPITTECH</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1228.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1499.49</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" t="n">
-        <v>5</v>
-      </c>
-      <c r="H114" t="n">
-        <v>5</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1296.1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>LTTS</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>4219.33</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5204.81</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" t="n">
-        <v>5</v>
-      </c>
-      <c r="H115" t="n">
-        <v>5</v>
-      </c>
-      <c r="I115" t="n">
-        <v>4465.7</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>KCP</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>193.67</v>
-      </c>
-      <c r="E116" t="n">
-        <v>260.99</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" t="n">
-        <v>5</v>
-      </c>
-      <c r="H116" t="n">
-        <v>5</v>
-      </c>
-      <c r="I116" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>3MINDIA</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>28701.79</v>
-      </c>
-      <c r="E117" t="n">
-        <v>33894.64</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" t="n">
-        <v>5</v>
-      </c>
-      <c r="H117" t="n">
-        <v>5</v>
-      </c>
-      <c r="I117" t="n">
-        <v>30000</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>ALOKINDS</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="E118" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" t="n">
-        <v>5</v>
-      </c>
-      <c r="H118" t="n">
-        <v>5</v>
-      </c>
-      <c r="I118" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>OIL</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>422.44</v>
-      </c>
-      <c r="E119" t="n">
-        <v>528.6900000000001</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" t="n">
-        <v>5</v>
-      </c>
-      <c r="H119" t="n">
-        <v>5</v>
-      </c>
-      <c r="I119" t="n">
-        <v>449</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>KALYANKJIL</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>5</v>
-      </c>
-      <c r="D120" t="n">
-        <v>567.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>728.09</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" t="n">
-        <v>5</v>
-      </c>
-      <c r="H120" t="n">
-        <v>5</v>
-      </c>
-      <c r="I120" t="n">
-        <v>607.5</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ECLERX</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>3412.42</v>
-      </c>
-      <c r="E121" t="n">
-        <v>4487.92</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>5</v>
-      </c>
-      <c r="H121" t="n">
-        <v>5</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3681.3</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>JUBLINGREA</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>779.97</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1052.9</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" t="n">
-        <v>5</v>
-      </c>
-      <c r="H122" t="n">
-        <v>5</v>
-      </c>
-      <c r="I122" t="n">
-        <v>848.2</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>GAEL</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>108.68</v>
-      </c>
-      <c r="E123" t="n">
-        <v>133.98</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" t="n">
-        <v>5</v>
-      </c>
-      <c r="H123" t="n">
-        <v>5</v>
-      </c>
-      <c r="I123" t="n">
-        <v>115</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CAMS</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>3978.13</v>
-      </c>
-      <c r="E124" t="n">
-        <v>5153.21</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" t="n">
-        <v>5</v>
-      </c>
-      <c r="H124" t="n">
-        <v>5</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4271.9</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>124</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>AUROPHARMA</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>5</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1093.07</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1366</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" t="n">
-        <v>5</v>
-      </c>
-      <c r="H125" t="n">
-        <v>5</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1161.3</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>125</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>CHOLAHLDNG</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>5</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1945.94</v>
-      </c>
-      <c r="E126" t="n">
-        <v>2722.58</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" t="n">
-        <v>5</v>
-      </c>
-      <c r="H126" t="n">
-        <v>5</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2140.1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>126</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>LALPATHLAB</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2840.02</v>
-      </c>
-      <c r="E127" t="n">
-        <v>3554.74</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" t="n">
-        <v>5</v>
-      </c>
-      <c r="H127" t="n">
-        <v>5</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3018.7</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>127</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>MRPL</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>136.99</v>
-      </c>
-      <c r="E128" t="n">
-        <v>184.68</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" t="n">
-        <v>5</v>
-      </c>
-      <c r="H128" t="n">
-        <v>5</v>
-      </c>
-      <c r="I128" t="n">
-        <v>148.91</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>128</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>MAHLIFE</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>5</v>
-      </c>
-      <c r="D129" t="n">
-        <v>351.9</v>
-      </c>
-      <c r="E129" t="n">
-        <v>436.29</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1</v>
-      </c>
-      <c r="G129" t="n">
-        <v>5</v>
-      </c>
-      <c r="H129" t="n">
-        <v>5</v>
-      </c>
-      <c r="I129" t="n">
-        <v>373</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>129</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>BLUESTARCO</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>5</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1748.35</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2311.74</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>5</v>
-      </c>
-      <c r="H130" t="n">
-        <v>5</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1889.2</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>WHIRLPOOL</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1307.62</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1701.55</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" t="n">
-        <v>5</v>
-      </c>
-      <c r="H131" t="n">
-        <v>5</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1406.1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>KAJARIACER</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1137.74</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1479.17</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" t="n">
-        <v>5</v>
-      </c>
-      <c r="H132" t="n">
-        <v>5</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1223.1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>ATGL</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>5</v>
-      </c>
-      <c r="D133" t="n">
-        <v>633.5</v>
-      </c>
-      <c r="E133" t="n">
-        <v>763.6900000000001</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>5</v>
-      </c>
-      <c r="H133" t="n">
-        <v>5</v>
-      </c>
-      <c r="I133" t="n">
-        <v>666.05</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>133</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ITC</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>5</v>
-      </c>
-      <c r="D134" t="n">
-        <v>413.47</v>
-      </c>
-      <c r="E134" t="n">
-        <v>460.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1</v>
-      </c>
-      <c r="G134" t="n">
-        <v>5</v>
-      </c>
-      <c r="H134" t="n">
-        <v>5</v>
-      </c>
-      <c r="I134" t="n">
-        <v>425.2</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>134</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ADANIENT</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>5</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2524.54</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2990.37</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>5</v>
-      </c>
-      <c r="H135" t="n">
-        <v>5</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2641</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>135</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>AARTIPHARM</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>889.3</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1184.09</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>5</v>
-      </c>
-      <c r="H136" t="n">
-        <v>5</v>
-      </c>
-      <c r="I136" t="n">
-        <v>963</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>136</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ANANTRAJ</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>541.8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>809.8099999999999</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" t="n">
-        <v>5</v>
-      </c>
-      <c r="H137" t="n">
-        <v>5</v>
-      </c>
-      <c r="I137" t="n">
-        <v>608.8</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>137</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>GREAVESCOT</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>195.92</v>
-      </c>
-      <c r="E138" t="n">
-        <v>256.64</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" t="n">
-        <v>5</v>
-      </c>
-      <c r="H138" t="n">
-        <v>5</v>
-      </c>
-      <c r="I138" t="n">
-        <v>211.1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>138</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>TATATECH</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>5</v>
-      </c>
-      <c r="D139" t="n">
-        <v>693.5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>891.11</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>5</v>
-      </c>
-      <c r="H139" t="n">
-        <v>5</v>
-      </c>
-      <c r="I139" t="n">
-        <v>742.9</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
         <is>
           <t>0-10</t>
         </is>

--- a/Daily/Plan/Consolidated_Score_Latest.xlsx
+++ b/Daily/Plan/Consolidated_Score_Latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,29 +501,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAXESTATES</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>500.2</v>
+        <v>380.9</v>
       </c>
       <c r="E2" t="n">
-        <v>656.59</v>
+        <v>585.7</v>
       </c>
       <c r="F2" t="n">
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>6.285714285714286</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>539.3</v>
+        <v>432.1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>41-50</t>
+          <t>31-40</t>
         </is>
       </c>
     </row>
@@ -547,29 +547,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KCP</t>
+          <t>DALBHARAT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>193.31</v>
+        <v>2113.55</v>
       </c>
       <c r="E3" t="n">
-        <v>270.98</v>
+        <v>2779.36</v>
       </c>
       <c r="F3" t="n">
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>6.285714285714286</v>
+        <v>5.142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>212.73</v>
+        <v>2280</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>41-50</t>
+          <t>31-40</t>
         </is>
       </c>
     </row>
@@ -593,17 +593,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAHLIFE</t>
+          <t>UPL</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>351.51</v>
+        <v>637.8200000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>439.08</v>
+        <v>901.74</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
@@ -615,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>373.4</v>
+        <v>703.8</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -639,29 +639,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHEMPLASTS</t>
+          <t>KCP</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>405.38</v>
+        <v>201.92</v>
       </c>
       <c r="E5" t="n">
-        <v>590.67</v>
+        <v>263.23</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.666666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>451.7</v>
+        <v>217.25</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -685,29 +685,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INDHOTEL</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>718</v>
+        <v>580.22</v>
       </c>
       <c r="E6" t="n">
-        <v>915.39</v>
+        <v>685.54</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>5.333333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>767.35</v>
+        <v>606.55</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -731,17 +731,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NUVOCO</t>
+          <t>PAYTM</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>355.79</v>
+        <v>952.61</v>
       </c>
       <c r="E7" t="n">
-        <v>512.4299999999999</v>
+        <v>1200.18</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -753,7 +753,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>394.95</v>
+        <v>1014.5</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -777,17 +777,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>SHK</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>154.13</v>
+        <v>222.76</v>
       </c>
       <c r="E8" t="n">
-        <v>185.54</v>
+        <v>329.72</v>
       </c>
       <c r="F8" t="n">
         <v>6</v>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>161.98</v>
+        <v>249.5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -823,29 +823,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>SHYAMMETL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
-        <v>2165.64</v>
+        <v>877</v>
       </c>
       <c r="E9" t="n">
-        <v>2927.48</v>
+        <v>1074.79</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>2356.1</v>
+        <v>926.45</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -869,29 +869,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FLUOROCHEM</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>3296.95</v>
+        <v>1337.31</v>
       </c>
       <c r="E10" t="n">
-        <v>4077.16</v>
+        <v>1815.27</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>3492</v>
+        <v>1456.8</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -915,29 +915,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>4990.77</v>
+        <v>30348.04</v>
       </c>
       <c r="E11" t="n">
-        <v>7273.7</v>
+        <v>36215.89</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>5561.5</v>
+        <v>31815</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -961,29 +961,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PRAKASH</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>154.96</v>
+        <v>184.73</v>
       </c>
       <c r="E12" t="n">
-        <v>249.13</v>
+        <v>226.02</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>5.75</v>
       </c>
       <c r="H12" t="n">
         <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>178.5</v>
+        <v>195.05</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1007,29 +1007,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DALBHARAT</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>2113.54</v>
+        <v>7974.73</v>
       </c>
       <c r="E13" t="n">
-        <v>2670.18</v>
+        <v>9513.799999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>5.75</v>
       </c>
       <c r="H13" t="n">
         <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>2252.7</v>
+        <v>8359.5</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1053,29 +1053,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PVRINOX</t>
+          <t>BORORENEW</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>946.46</v>
+        <v>485.56</v>
       </c>
       <c r="E14" t="n">
-        <v>1217.82</v>
+        <v>924.13</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>1014.3</v>
+        <v>595.2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1099,29 +1099,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KRBL</t>
+          <t>3MINDIA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>367.51</v>
+        <v>29344.46</v>
       </c>
       <c r="E15" t="n">
-        <v>540.46</v>
+        <v>34926.61</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>410.75</v>
+        <v>30740</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1145,29 +1145,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAREGAMA</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>472.77</v>
+        <v>255.83</v>
       </c>
       <c r="E16" t="n">
-        <v>641.29</v>
+        <v>326.72</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>514.9</v>
+        <v>273.55</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1191,29 +1191,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>LATENTVIEW</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>7974.73</v>
+        <v>402.91</v>
       </c>
       <c r="E17" t="n">
-        <v>9513.799999999999</v>
+        <v>544.87</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H17" t="n">
         <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>8359.5</v>
+        <v>438.4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1237,29 +1237,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WHIRLPOOL</t>
+          <t>GMDCLTD</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>1325.71</v>
+        <v>367.07</v>
       </c>
       <c r="E18" t="n">
-        <v>1724.86</v>
+        <v>716.79</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>1425.5</v>
+        <v>454.5</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1283,29 +1283,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>METROBRAND</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>1132.67</v>
+        <v>1399.19</v>
       </c>
       <c r="E19" t="n">
-        <v>1468.39</v>
+        <v>1643.24</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>1216.6</v>
+        <v>1460.2</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1329,29 +1329,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BORORENEW</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>485.56</v>
+        <v>2166.42</v>
       </c>
       <c r="E20" t="n">
-        <v>924.13</v>
+        <v>3040.75</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>595.2</v>
+        <v>2385</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1375,29 +1375,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>SWIGGY</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>380.9</v>
+        <v>373.49</v>
       </c>
       <c r="E21" t="n">
-        <v>585.7</v>
+        <v>546.74</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>432.1</v>
+        <v>416.8</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1421,29 +1421,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KIMS</t>
+          <t>RHIM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>688.0599999999999</v>
+        <v>464.32</v>
       </c>
       <c r="E22" t="n">
-        <v>982.41</v>
+        <v>671.25</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
         <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>761.65</v>
+        <v>516.05</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1467,29 +1467,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ASHAPURMIN</t>
+          <t>AGI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>434.32</v>
+        <v>827.14</v>
       </c>
       <c r="E23" t="n">
-        <v>993.03</v>
+        <v>1258.19</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>574</v>
+        <v>934.9</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1513,29 +1513,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PATANJALI</t>
+          <t>ETERNAL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>1628.46</v>
+        <v>252.01</v>
       </c>
       <c r="E24" t="n">
-        <v>2834.63</v>
+        <v>423.78</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>1930</v>
+        <v>294.95</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1559,29 +1559,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HINDCOPPER</t>
+          <t>LTF</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>251.51</v>
+        <v>196.12</v>
       </c>
       <c r="E25" t="n">
-        <v>324.26</v>
+        <v>250.03</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>269.7</v>
+        <v>209.6</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1605,29 +1605,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>CHEMPLASTS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>580.22</v>
+        <v>405.28</v>
       </c>
       <c r="E26" t="n">
-        <v>685.54</v>
+        <v>617.55</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>606.55</v>
+        <v>458.35</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>21-30</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -1651,29 +1651,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>TATACHEM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>637.8200000000001</v>
+        <v>908.3200000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>901.74</v>
+        <v>1079.25</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>6.666666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>703.8</v>
+        <v>951.05</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1697,29 +1697,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IIFL</t>
+          <t>NUVOCO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>504.8</v>
+        <v>355.61</v>
       </c>
       <c r="E28" t="n">
-        <v>629.8</v>
+        <v>524.5599999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>536.05</v>
+        <v>397.85</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1743,29 +1743,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RRKABEL</t>
+          <t>MAXESTATES</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.9</v>
+        <v>499.53</v>
       </c>
       <c r="E29" t="n">
-        <v>2045.89</v>
+        <v>692.01</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>1481.9</v>
+        <v>547.65</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1789,29 +1789,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TATACOMM</t>
+          <t>PRAKASH</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>1660.34</v>
+        <v>154.72</v>
       </c>
       <c r="E30" t="n">
-        <v>2103.77</v>
+        <v>268.32</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>1771.2</v>
+        <v>183.12</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1835,29 +1835,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SUMICHEM</t>
+          <t>POWERINDIA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>520.77</v>
+        <v>17948.04</v>
       </c>
       <c r="E31" t="n">
-        <v>849.49</v>
+        <v>25415.89</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>602.95</v>
+        <v>19815</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1881,29 +1881,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>184.73</v>
+        <v>656.63</v>
       </c>
       <c r="E32" t="n">
-        <v>226.02</v>
+        <v>778.7</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>195.05</v>
+        <v>687.15</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1927,29 +1927,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LTF</t>
+          <t>JBCHEPHARM</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>196.12</v>
+        <v>1591.1</v>
       </c>
       <c r="E33" t="n">
-        <v>250.03</v>
+        <v>1933.9</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>209.6</v>
+        <v>1676.8</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1973,29 +1973,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NMDC</t>
+          <t>THOMASCOOK</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>67.04000000000001</v>
+        <v>158.15</v>
       </c>
       <c r="E34" t="n">
-        <v>82.62</v>
+        <v>264.36</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>70.93000000000001</v>
+        <v>184.7</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2019,29 +2019,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>CENTENKA</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>267.22</v>
+        <v>494.4</v>
       </c>
       <c r="E35" t="n">
-        <v>378.94</v>
+        <v>616.79</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>295.15</v>
+        <v>525</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2065,29 +2065,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BANDHANBNK</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>172.17</v>
+        <v>944.46</v>
       </c>
       <c r="E36" t="n">
-        <v>231.5</v>
+        <v>1303.43</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>187</v>
+        <v>1034.2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2111,17 +2111,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TIMKEN</t>
+          <t>PENIND</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>3239.83</v>
+        <v>230.91</v>
       </c>
       <c r="E37" t="n">
-        <v>4184.5</v>
+        <v>308.24</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>3476</v>
+        <v>250.24</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2157,17 +2157,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>THOMASCOOK</t>
+          <t>FLUOROCHEM</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>158.31</v>
+        <v>3351.99</v>
       </c>
       <c r="E38" t="n">
-        <v>235.43</v>
+        <v>4177.63</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
@@ -2179,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>177.59</v>
+        <v>3558.4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2203,17 +2203,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SAMMAANCAP</t>
+          <t>TIMKEN</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>121.04</v>
+        <v>3239.83</v>
       </c>
       <c r="E39" t="n">
-        <v>180.89</v>
+        <v>4184.5</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
@@ -2225,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>136</v>
+        <v>3476</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2249,17 +2249,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AZAD</t>
+          <t>IIFL</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>1522.54</v>
+        <v>506.21</v>
       </c>
       <c r="E40" t="n">
-        <v>1975.98</v>
+        <v>624.96</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
@@ -2271,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>1635.9</v>
+        <v>535.9</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2295,29 +2295,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GMDCLTD</t>
+          <t>ANGELONE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>368.07</v>
+        <v>2574.2</v>
       </c>
       <c r="E41" t="n">
-        <v>580.39</v>
+        <v>3540.99</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I41" t="n">
-        <v>421.15</v>
+        <v>2815.9</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2341,29 +2341,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BBL</t>
+          <t>UBL</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>2936.31</v>
+        <v>1967.18</v>
       </c>
       <c r="E42" t="n">
-        <v>4591.08</v>
+        <v>2317.25</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>3350</v>
+        <v>2054.7</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2387,29 +2387,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>GODFRYPHLP</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>1399.19</v>
+        <v>8603.889999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>1643.24</v>
+        <v>12400.32</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>1460.2</v>
+        <v>9553</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2433,29 +2433,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CHENNPETRO</t>
+          <t>SUPREMEIND</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>696.88</v>
+        <v>4083.62</v>
       </c>
       <c r="E44" t="n">
-        <v>1016.97</v>
+        <v>4923.55</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H44" t="n">
         <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>776.9</v>
+        <v>4293.6</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2479,29 +2479,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GPPL</t>
+          <t>SHRIRAMPPS</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>154.65</v>
+        <v>92.58</v>
       </c>
       <c r="E45" t="n">
-        <v>188.06</v>
+        <v>122.74</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H45" t="n">
         <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>163</v>
+        <v>100.12</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2525,29 +2525,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>MMTC</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>908.73</v>
+        <v>66.08</v>
       </c>
       <c r="E46" t="n">
-        <v>1108.01</v>
+        <v>87.95</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H46" t="n">
         <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>958.55</v>
+        <v>71.55</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2617,17 +2617,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MMTC</t>
+          <t>PERSISTENT</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>66.08</v>
+        <v>5344.59</v>
       </c>
       <c r="E48" t="n">
-        <v>87.95</v>
+        <v>7124.23</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
@@ -2639,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>71.55</v>
+        <v>5789.5</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2663,29 +2663,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SUPREMEIND</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>4083.62</v>
+        <v>374.12</v>
       </c>
       <c r="E49" t="n">
-        <v>4923.55</v>
+        <v>444.84</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>4293.6</v>
+        <v>391.8</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>0-10</t>
         </is>
       </c>
     </row>
@@ -2709,17 +2709,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FORTIS</t>
+          <t>MAHLIFE</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>747.16</v>
+        <v>358.42</v>
       </c>
       <c r="E50" t="n">
-        <v>1002.12</v>
+        <v>469.93</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -2731,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>810.9</v>
+        <v>386.3</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2755,17 +2755,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SAPPHIRE</t>
+          <t>KAJARIACER</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>319.42</v>
+        <v>1145.97</v>
       </c>
       <c r="E51" t="n">
-        <v>432.14</v>
+        <v>1550.5</v>
       </c>
       <c r="F51" t="n">
         <v>2</v>
@@ -2777,7 +2777,7 @@
         <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>347.6</v>
+        <v>1247.1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2801,17 +2801,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ANANDRATHI</t>
+          <t>INDHOTEL</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>2014.57</v>
+        <v>717.99</v>
       </c>
       <c r="E52" t="n">
-        <v>4475.9</v>
+        <v>944.8200000000001</v>
       </c>
       <c r="F52" t="n">
         <v>2</v>
@@ -2823,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>2629.9</v>
+        <v>774.7</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2847,17 +2847,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SHK</t>
+          <t>360ONE</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>222.76</v>
+        <v>1126.4</v>
       </c>
       <c r="E53" t="n">
-        <v>329.72</v>
+        <v>1513.61</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
@@ -2869,7 +2869,7 @@
         <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>249.5</v>
+        <v>1223.2</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>360ONE</t>
+          <t>ASHAPURMIN</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>1126.4</v>
+        <v>434.15</v>
       </c>
       <c r="E54" t="n">
-        <v>1513.61</v>
+        <v>1033.36</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
@@ -2915,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>1223.2</v>
+        <v>583.95</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2939,17 +2939,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECLERX</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>3457.14</v>
+        <v>155.4</v>
       </c>
       <c r="E55" t="n">
-        <v>4528.57</v>
+        <v>190.9</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
@@ -2961,7 +2961,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>3725</v>
+        <v>164.27</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2985,17 +2985,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JBCHEPHARM</t>
+          <t>INDIACEM</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>1591.1</v>
+        <v>325.06</v>
       </c>
       <c r="E56" t="n">
-        <v>1933.9</v>
+        <v>455.41</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
@@ -3007,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>1676.8</v>
+        <v>357.65</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3031,17 +3031,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KAJARIACER</t>
+          <t>MAPMYINDIA</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>1145.97</v>
+        <v>1752.79</v>
       </c>
       <c r="E57" t="n">
-        <v>1550.5</v>
+        <v>2135.64</v>
       </c>
       <c r="F57" t="n">
         <v>2</v>
@@ -3053,7 +3053,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>1247.1</v>
+        <v>1848.5</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3077,17 +3077,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>NLCINDIA</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>952.61</v>
+        <v>226.13</v>
       </c>
       <c r="E58" t="n">
-        <v>1200.18</v>
+        <v>286.68</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
@@ -3099,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>1014.5</v>
+        <v>241.27</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3123,17 +3123,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JUBLPHARMA</t>
+          <t>LEMONTREE</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>1158.04</v>
+        <v>145.32</v>
       </c>
       <c r="E59" t="n">
-        <v>1463.89</v>
+        <v>194.4</v>
       </c>
       <c r="F59" t="n">
         <v>2</v>
@@ -3145,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>1234.5</v>
+        <v>157.59</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>444.91</v>
+        <v>557.6900000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>619.27</v>
+        <v>690.9400000000001</v>
       </c>
       <c r="F60" t="n">
         <v>2</v>
@@ -3191,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>488.5</v>
+        <v>591</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3215,17 +3215,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SHYAMMETL</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>877</v>
+        <v>3050.1</v>
       </c>
       <c r="E61" t="n">
-        <v>1074.79</v>
+        <v>3834.89</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
@@ -3237,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>926.45</v>
+        <v>3246.3</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3261,17 +3261,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TATAINVEST</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>6437.54</v>
+        <v>444.91</v>
       </c>
       <c r="E62" t="n">
-        <v>8275.389999999999</v>
+        <v>619.27</v>
       </c>
       <c r="F62" t="n">
         <v>2</v>
@@ -3283,7 +3283,7 @@
         <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>6897</v>
+        <v>488.5</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3307,29 +3307,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SKFINDIA</t>
+          <t>SAMMAANCAP</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>4731.59</v>
+        <v>121.04</v>
       </c>
       <c r="E63" t="n">
-        <v>5746.44</v>
+        <v>191.27</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>4985.3</v>
+        <v>138.6</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3353,29 +3353,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PERSISTENT</t>
+          <t>TATAINVEST</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>5344.59</v>
+        <v>6437.54</v>
       </c>
       <c r="E64" t="n">
-        <v>7124.23</v>
+        <v>8275.389999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>5789.5</v>
+        <v>6897</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3399,17 +3399,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DELHIVERY</t>
+          <t>SYNGENE</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>399.14</v>
+        <v>643.58</v>
       </c>
       <c r="E65" t="n">
-        <v>535.79</v>
+        <v>789.26</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3421,7 +3421,7 @@
         <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>433.3</v>
+        <v>680</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3445,17 +3445,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JKCEMENT</t>
+          <t>HAVELLS</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>6227.73</v>
+        <v>1496.21</v>
       </c>
       <c r="E66" t="n">
-        <v>7788.8</v>
+        <v>1827.37</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -3467,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>6618</v>
+        <v>1579</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3491,17 +3491,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LATENTVIEW</t>
+          <t>RBA</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>402.91</v>
+        <v>80.98</v>
       </c>
       <c r="E67" t="n">
-        <v>544.87</v>
+        <v>102.71</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -3513,7 +3513,7 @@
         <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>438.4</v>
+        <v>86.41</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3537,17 +3537,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DEEPINDS</t>
+          <t>RAMCOCEM</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>434.6</v>
+        <v>1101.98</v>
       </c>
       <c r="E68" t="n">
-        <v>605.41</v>
+        <v>1454.05</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>477.3</v>
+        <v>1190</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3583,17 +3583,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DEVYANI</t>
+          <t>MASTEK</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>164.06</v>
+        <v>2412.24</v>
       </c>
       <c r="E69" t="n">
-        <v>220.25</v>
+        <v>3740.07</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>178.11</v>
+        <v>2744.2</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3629,17 +3629,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VAIBHAVGBL</t>
+          <t>FORTIS</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>231.1</v>
+        <v>747.14</v>
       </c>
       <c r="E70" t="n">
-        <v>292.21</v>
+        <v>990.77</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>246.38</v>
+        <v>808.05</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3675,17 +3675,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SOBHA</t>
+          <t>DEEPAKFERT</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>1467.38</v>
+        <v>1497.89</v>
       </c>
       <c r="E71" t="n">
-        <v>2417.45</v>
+        <v>2032.32</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>1704.9</v>
+        <v>1631.5</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3721,17 +3721,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SWANENERGY</t>
+          <t>METROBRAND</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>438.82</v>
+        <v>1122.79</v>
       </c>
       <c r="E72" t="n">
-        <v>741.54</v>
+        <v>1462.43</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>514.5</v>
+        <v>1207.7</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3767,17 +3767,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAPMYINDIA</t>
+          <t>CONCORDBIO</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>1726.42</v>
+        <v>1750.6</v>
       </c>
       <c r="E73" t="n">
-        <v>2121.14</v>
+        <v>2512.21</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>1825.1</v>
+        <v>1941</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3813,17 +3813,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRITURBINE</t>
+          <t>SCHAEFFLER</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>623</v>
+        <v>4020.86</v>
       </c>
       <c r="E74" t="n">
-        <v>807</v>
+        <v>5323.01</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>669</v>
+        <v>4346.4</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3859,17 +3859,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CENTENKA</t>
+          <t>POONAWALLA</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>494.4</v>
+        <v>436.59</v>
       </c>
       <c r="E75" t="n">
-        <v>616.79</v>
+        <v>536.23</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -3881,7 +3881,7 @@
         <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>525</v>
+        <v>461.5</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3905,17 +3905,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SUNDARMFIN</t>
+          <t>ARE&amp;M</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>4868.88</v>
+        <v>966.17</v>
       </c>
       <c r="E76" t="n">
-        <v>6051.38</v>
+        <v>1152.7</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>5164.5</v>
+        <v>1012.8</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3951,17 +3951,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CHALET</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>841.74</v>
+        <v>4990.91</v>
       </c>
       <c r="E77" t="n">
-        <v>1197.17</v>
+        <v>7515.27</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -3973,7 +3973,7 @@
         <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>930.6</v>
+        <v>5622</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3997,17 +3997,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>SUMICHEM</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>905.75</v>
+        <v>544.11</v>
       </c>
       <c r="E78" t="n">
-        <v>1076.75</v>
+        <v>741.6799999999999</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>948.5</v>
+        <v>593.5</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4043,17 +4043,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HEG</t>
+          <t>PIIND</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>486.36</v>
+        <v>3974.05</v>
       </c>
       <c r="E79" t="n">
-        <v>698.13</v>
+        <v>4813.84</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -4065,7 +4065,7 @@
         <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>539.3</v>
+        <v>4184</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4089,17 +4089,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>KRBL</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>374.12</v>
+        <v>367.36</v>
       </c>
       <c r="E80" t="n">
-        <v>444.84</v>
+        <v>557.92</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>5</v>
       </c>
       <c r="I80" t="n">
-        <v>391.8</v>
+        <v>415</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4135,17 +4135,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CRAFTSMAN</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>5801.79</v>
+        <v>3427.49</v>
       </c>
       <c r="E81" t="n">
-        <v>8712.639999999999</v>
+        <v>4159.13</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>6529.5</v>
+        <v>3610.4</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>CRAFTSMAN</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>3427.49</v>
+        <v>5801.79</v>
       </c>
       <c r="E82" t="n">
-        <v>4159.13</v>
+        <v>8712.639999999999</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -4203,7 +4203,7 @@
         <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>3610.4</v>
+        <v>6529.5</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4227,17 +4227,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>3050.1</v>
+        <v>905.75</v>
       </c>
       <c r="E83" t="n">
-        <v>3834.89</v>
+        <v>1076.75</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -4249,7 +4249,7 @@
         <v>5</v>
       </c>
       <c r="I83" t="n">
-        <v>3246.3</v>
+        <v>948.5</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4273,17 +4273,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PIIND</t>
+          <t>BANDHANBNK</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>3974.05</v>
+        <v>170.84</v>
       </c>
       <c r="E84" t="n">
-        <v>4813.84</v>
+        <v>217.94</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="I84" t="n">
-        <v>4184</v>
+        <v>182.61</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4319,17 +4319,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SUNTV</t>
+          <t>KEI</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>557.6900000000001</v>
+        <v>3758.98</v>
       </c>
       <c r="E85" t="n">
-        <v>690.9400000000001</v>
+        <v>4789.05</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="n">
-        <v>591</v>
+        <v>4016.5</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4365,17 +4365,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ARE&amp;M</t>
+          <t>CGCL</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>966.17</v>
+        <v>172.54</v>
       </c>
       <c r="E86" t="n">
-        <v>1152.7</v>
+        <v>222.42</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -4387,7 +4387,7 @@
         <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>1012.8</v>
+        <v>185.01</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4411,17 +4411,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JGCHEM</t>
+          <t>BALKRISIND</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>467.96</v>
+        <v>2607.32</v>
       </c>
       <c r="E87" t="n">
-        <v>796.11</v>
+        <v>3338.05</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -4433,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="I87" t="n">
-        <v>550</v>
+        <v>2790</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4457,17 +4457,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>POONAWALLA</t>
+          <t>LLOYDSME</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>436.59</v>
+        <v>1443.27</v>
       </c>
       <c r="E88" t="n">
-        <v>536.23</v>
+        <v>1852.19</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>461.5</v>
+        <v>1545.5</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4503,17 +4503,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CONCORDBIO</t>
+          <t>BIRLACORPN</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>1750.6</v>
+        <v>1363.19</v>
       </c>
       <c r="E89" t="n">
-        <v>2512.21</v>
+        <v>1768.03</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -4525,7 +4525,7 @@
         <v>5</v>
       </c>
       <c r="I89" t="n">
-        <v>1941</v>
+        <v>1464.4</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4549,17 +4549,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MASTEK</t>
+          <t>M&amp;MFIN</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>2412.24</v>
+        <v>253.36</v>
       </c>
       <c r="E90" t="n">
-        <v>3740.07</v>
+        <v>305.53</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="n">
-        <v>2744.2</v>
+        <v>266.4</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4595,17 +4595,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LEMONTREE</t>
+          <t>GREENPLY</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>145.32</v>
+        <v>294.41</v>
       </c>
       <c r="E91" t="n">
-        <v>194.4</v>
+        <v>500.77</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -4617,7 +4617,7 @@
         <v>5</v>
       </c>
       <c r="I91" t="n">
-        <v>157.59</v>
+        <v>346</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4641,17 +4641,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DEEPAKFERT</t>
+          <t>JAGSNPHARM</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>1497.89</v>
+        <v>235.97</v>
       </c>
       <c r="E92" t="n">
-        <v>2032.32</v>
+        <v>339.3</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>5</v>
       </c>
       <c r="I92" t="n">
-        <v>1631.5</v>
+        <v>261.8</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4687,17 +4687,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SCHAEFFLER</t>
+          <t>JGCHEM</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>4020.86</v>
+        <v>467.96</v>
       </c>
       <c r="E93" t="n">
-        <v>5323.01</v>
+        <v>796.11</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -4709,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="I93" t="n">
-        <v>4346.4</v>
+        <v>550</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4722,52 +4722,6 @@
         </is>
       </c>
       <c r="L93" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ELGIEQUIP</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>5</v>
-      </c>
-      <c r="D94" t="n">
-        <v>521.63</v>
-      </c>
-      <c r="E94" t="n">
-        <v>667.1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>5</v>
-      </c>
-      <c r="H94" t="n">
-        <v>5</v>
-      </c>
-      <c r="I94" t="n">
-        <v>558</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Higher_Probability_Bull_Reversal</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>LONG</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
         <is>
           <t>0-10</t>
         </is>
